--- a/Desarrollo/SGEH/Fuentes/SGEH-DEC.xlsx
+++ b/Desarrollo/SGEH/Fuentes/SGEH-DEC.xlsx
@@ -8,15 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\UNMSM\CICLO VI\GCS-WONG\Estado de Cambio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC454966-70A4-4911-88C5-E3D5FAAE5756}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E4BB598-418E-48EA-A08E-57C97C7F6CB4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Estados de Solicitud de Cambio" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId7" roundtripDataSignature="AMtx7mgpXwrv42td76QbkWjxKitpKvM/vw=="/>
     </ext>
@@ -25,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>ID</t>
   </si>
@@ -102,10 +111,40 @@
     <t>La solicitud de cambio ha sido desaprobada por el comité de control de cambios.</t>
   </si>
   <si>
+    <t>Planificado</t>
+  </si>
+  <si>
+    <t>Se ha realizado la planificación de actividades que se describe en la solicitud de cambio emitida por el usuario.</t>
+  </si>
+  <si>
+    <t>Archivado</t>
+  </si>
+  <si>
+    <t>La solicitud de cambio se archiva por encargado de gestión de cambios</t>
+  </si>
+  <si>
+    <t>Implementado</t>
+  </si>
+  <si>
+    <t>Se ha implementado la solicitud de cambio emitida por el usuario.</t>
+  </si>
+  <si>
+    <t>Verificado</t>
+  </si>
+  <si>
+    <t>El usuario ha verificado la funcionalidad del cambio.</t>
+  </si>
+  <si>
+    <t>Terminado</t>
+  </si>
+  <si>
+    <t>La solicitud de cambio se da por terminado.</t>
+  </si>
+  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>ESTADOS DE SOLICITUD DE CAMBIOS</t>
+    <t>ESTADOS DE SOLICITUD DE CAMBIO</t>
   </si>
 </sst>
 </file>
@@ -188,7 +227,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -286,11 +325,56 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF674EA7"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF674EA7"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF674EA7"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF674EA7"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF674EA7"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -343,6 +427,18 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -564,10 +660,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:J1002"/>
+  <dimension ref="B1:K1002"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1"/>
@@ -587,27 +683,27 @@
     <col min="15" max="26" width="9.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="14.4">
+    <row r="1" spans="2:11" ht="14.4">
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="2:10" ht="46.5" customHeight="1">
+    <row r="2" spans="2:11" ht="46.5" customHeight="1">
       <c r="B2" s="1"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="2:10" ht="48" customHeight="1">
-      <c r="B3" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="F3" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+    </row>
+    <row r="3" spans="2:11" ht="48" customHeight="1" thickBot="1">
+      <c r="B3" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
       <c r="G3" s="2"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="3"/>
       <c r="J3" s="2"/>
-    </row>
-    <row r="4" spans="2:10" ht="35.25" customHeight="1">
+      <c r="K3" s="2"/>
+    </row>
+    <row r="4" spans="2:11" ht="35.25" customHeight="1" thickBot="1">
       <c r="B4" s="4" t="s">
         <v>0</v>
       </c>
@@ -617,10 +713,10 @@
       <c r="D4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="2"/>
       <c r="G4" s="2"/>
-    </row>
-    <row r="5" spans="2:10" ht="72" customHeight="1">
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" spans="2:11" ht="72" customHeight="1" thickBot="1">
       <c r="B5" s="7">
         <v>1</v>
       </c>
@@ -630,10 +726,10 @@
       <c r="D5" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="2"/>
       <c r="G5" s="2"/>
-    </row>
-    <row r="6" spans="2:10" ht="69.75" customHeight="1">
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" spans="2:11" ht="69.75" customHeight="1" thickBot="1">
       <c r="B6" s="10">
         <v>2</v>
       </c>
@@ -643,10 +739,10 @@
       <c r="D6" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="2"/>
       <c r="G6" s="2"/>
-    </row>
-    <row r="7" spans="2:10" ht="72" customHeight="1">
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" spans="2:11" ht="72" customHeight="1" thickBot="1">
       <c r="B7" s="13">
         <v>3</v>
       </c>
@@ -657,10 +753,10 @@
         <v>8</v>
       </c>
       <c r="E7" s="16"/>
-      <c r="F7" s="2"/>
       <c r="G7" s="2"/>
-    </row>
-    <row r="8" spans="2:10" ht="66.75" customHeight="1">
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" spans="2:11" ht="66.75" customHeight="1" thickBot="1">
       <c r="B8" s="17">
         <v>4</v>
       </c>
@@ -670,10 +766,10 @@
       <c r="D8" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="2"/>
       <c r="G8" s="2"/>
-    </row>
-    <row r="9" spans="2:10" ht="73.5" customHeight="1">
+      <c r="H8" s="2"/>
+    </row>
+    <row r="9" spans="2:11" ht="73.5" customHeight="1" thickBot="1">
       <c r="B9" s="13">
         <v>5</v>
       </c>
@@ -683,13 +779,13 @@
       <c r="D9" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
-    </row>
-    <row r="10" spans="2:10" ht="73.5" customHeight="1">
+      <c r="K9" s="2"/>
+    </row>
+    <row r="10" spans="2:11" ht="73.5" customHeight="1" thickBot="1">
       <c r="B10" s="17">
         <v>6</v>
       </c>
@@ -699,13 +795,13 @@
       <c r="D10" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
-    </row>
-    <row r="11" spans="2:10" ht="73.5" customHeight="1">
+      <c r="K10" s="2"/>
+    </row>
+    <row r="11" spans="2:11" ht="73.5" customHeight="1" thickBot="1">
       <c r="B11" s="13">
         <v>7</v>
       </c>
@@ -715,13 +811,13 @@
       <c r="D11" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
-    </row>
-    <row r="12" spans="2:10" ht="80.25" customHeight="1">
+      <c r="K11" s="2"/>
+    </row>
+    <row r="12" spans="2:11" ht="80.25" customHeight="1" thickBot="1">
       <c r="B12" s="17">
         <v>8</v>
       </c>
@@ -731,13 +827,13 @@
       <c r="D12" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
-    </row>
-    <row r="13" spans="2:10" ht="73.5" customHeight="1">
+      <c r="K12" s="2"/>
+    </row>
+    <row r="13" spans="2:11" ht="73.5" customHeight="1" thickBot="1">
       <c r="B13" s="13">
         <v>9</v>
       </c>
@@ -747,13 +843,13 @@
       <c r="D13" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
-    </row>
-    <row r="14" spans="2:10" ht="67.5" customHeight="1">
+      <c r="K13" s="2"/>
+    </row>
+    <row r="14" spans="2:11" ht="67.5" customHeight="1" thickBot="1">
       <c r="B14" s="17">
         <v>10</v>
       </c>
@@ -763,13 +859,13 @@
       <c r="D14" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
-    </row>
-    <row r="15" spans="2:10" ht="57" customHeight="1">
+      <c r="K14" s="2"/>
+    </row>
+    <row r="15" spans="2:11" ht="57" customHeight="1" thickBot="1">
       <c r="B15" s="13">
         <v>11</v>
       </c>
@@ -779,59 +875,107 @@
       <c r="D15" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
-    </row>
-    <row r="16" spans="2:10" ht="69" customHeight="1">
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
+      <c r="K15" s="2"/>
+    </row>
+    <row r="16" spans="2:11" ht="69" customHeight="1" thickBot="1">
+      <c r="B16" s="17">
+        <v>12</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>26</v>
+      </c>
       <c r="G16" s="2"/>
-    </row>
-    <row r="17" spans="2:7" ht="72" customHeight="1">
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+    </row>
+    <row r="17" spans="2:11" ht="72" customHeight="1" thickBot="1">
+      <c r="B17" s="13">
+        <v>13</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>28</v>
+      </c>
       <c r="G17" s="2"/>
-    </row>
-    <row r="18" spans="2:7" ht="75" customHeight="1"/>
-    <row r="19" spans="2:7" ht="57" customHeight="1"/>
-    <row r="20" spans="2:7" ht="60" customHeight="1"/>
-    <row r="21" spans="2:7" ht="60.75" customHeight="1"/>
-    <row r="22" spans="2:7" ht="14.4">
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+    </row>
+    <row r="18" spans="2:11" ht="75" customHeight="1" thickBot="1">
+      <c r="B18" s="17">
+        <v>14</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" ht="57" customHeight="1" thickBot="1">
+      <c r="B19" s="13">
+        <v>15</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" s="20" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" ht="60" customHeight="1" thickBot="1">
+      <c r="B20" s="21">
+        <v>16</v>
+      </c>
+      <c r="C20" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" s="23" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" ht="60.75" customHeight="1"/>
+    <row r="22" spans="2:11" ht="14.4">
       <c r="B22" s="1"/>
     </row>
-    <row r="23" spans="2:7" ht="15.75" customHeight="1">
+    <row r="23" spans="2:11" ht="15.75" customHeight="1">
       <c r="B23" s="1"/>
     </row>
-    <row r="24" spans="2:7" ht="15.75" customHeight="1">
+    <row r="24" spans="2:11" ht="15.75" customHeight="1">
       <c r="B24" s="1"/>
     </row>
-    <row r="25" spans="2:7" ht="15.75" customHeight="1">
+    <row r="25" spans="2:11" ht="15.75" customHeight="1">
       <c r="B25" s="1"/>
     </row>
-    <row r="26" spans="2:7" ht="15.75" customHeight="1">
+    <row r="26" spans="2:11" ht="15.75" customHeight="1">
       <c r="B26" s="1"/>
     </row>
-    <row r="27" spans="2:7" ht="15.75" customHeight="1">
+    <row r="27" spans="2:11" ht="15.75" customHeight="1">
       <c r="B27" s="1"/>
     </row>
-    <row r="28" spans="2:7" ht="15.75" customHeight="1">
+    <row r="28" spans="2:11" ht="15.75" customHeight="1">
       <c r="B28" s="1"/>
     </row>
-    <row r="29" spans="2:7" ht="15.75" customHeight="1">
+    <row r="29" spans="2:11" ht="15.75" customHeight="1">
       <c r="B29" s="1"/>
     </row>
-    <row r="30" spans="2:7" ht="15.75" customHeight="1">
+    <row r="30" spans="2:11" ht="15.75" customHeight="1">
       <c r="F30" s="16"/>
     </row>
-    <row r="31" spans="2:7" ht="15.75" customHeight="1"/>
-    <row r="32" spans="2:7" ht="15.75" customHeight="1"/>
+    <row r="31" spans="2:11" ht="15.75" customHeight="1"/>
+    <row r="32" spans="2:11" ht="15.75" customHeight="1"/>
     <row r="33" spans="2:5" ht="43.5" customHeight="1"/>
     <row r="34" spans="2:5" ht="43.5" customHeight="1"/>
     <row r="35" spans="2:5" ht="43.5" customHeight="1"/>
@@ -843,7 +987,7 @@
     <row r="39" spans="2:5" ht="27.75" customHeight="1"/>
     <row r="40" spans="2:5" ht="54.75" customHeight="1">
       <c r="E40" s="16" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
     </row>
     <row r="41" spans="2:5" ht="54.75" customHeight="1"/>

--- a/Desarrollo/SGEH/Fuentes/SGEH-DEC.xlsx
+++ b/Desarrollo/SGEH/Fuentes/SGEH-DEC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\UNMSM\CICLO VI\GCS-WONG\Estado de Cambio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E4BB598-418E-48EA-A08E-57C97C7F6CB4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D68DCD0C-0F59-4D35-9132-AE8FAABD2947}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="47">
+  <si>
+    <t>NIVELES DE URGENCIA</t>
+  </si>
   <si>
     <t>ID</t>
   </si>
@@ -45,28 +48,56 @@
     <t>Descripción</t>
   </si>
   <si>
+    <t>Nombre</t>
+  </si>
+  <si>
     <t>Creado</t>
   </si>
   <si>
     <t>El usuario ha creado la solicitud de cambios.</t>
   </si>
   <si>
+    <t>Bajo</t>
+  </si>
+  <si>
+    <t>El cambio es requerido para implementar mejoras o liberar nuevas versiones planeadas de los servicios.</t>
+  </si>
+  <si>
     <t>Recibido</t>
   </si>
   <si>
     <t>El sistema de gestión de cambios recepciona y lista solicitud de cambios.</t>
   </si>
   <si>
+    <t>Medio</t>
+  </si>
+  <si>
+    <t>El cambio es requerido para implementar ajustes funcionales en los servicios.</t>
+  </si>
+  <si>
     <t>Revisado</t>
   </si>
   <si>
     <t>El encargado de gestión de cambios verifica que solicitud de cambios cumpla con formato establecido</t>
   </si>
   <si>
+    <t>Alta</t>
+  </si>
+  <si>
+    <t>El cambio es requerido para corregir un error que está generando indisponibilidad parcial de los servicios</t>
+  </si>
+  <si>
     <t>Rechazado - Tipo 1</t>
   </si>
   <si>
     <t>El encargado de gestión de cambios rechaza solicitud de cambios porque no cumple con formato establecido</t>
+  </si>
+  <si>
+    <t>Crítica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El cambio es requerido para habilitar o restaurar los servicios.
+</t>
   </si>
   <si>
     <t>Asignado</t>
@@ -195,7 +226,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -206,6 +237,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF674EA7"/>
         <bgColor rgb="FF674EA7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF741B47"/>
+        <bgColor rgb="FF741B47"/>
       </patternFill>
     </fill>
     <fill>
@@ -222,12 +259,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFEAD1DC"/>
+        <bgColor rgb="FFEAD1DC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFDFDFD"/>
         <bgColor rgb="FFFDFDFD"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -281,23 +324,53 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FF674EA7"/>
+      <left style="thick">
+        <color rgb="FF741B47"/>
       </left>
-      <right style="medium">
+      <right style="thick">
         <color rgb="FFFFFFFF"/>
       </right>
-      <top style="medium">
-        <color rgb="FFFFFFFF"/>
+      <top style="thick">
+        <color rgb="FF741B47"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thick">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thick">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF741B47"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF741B47"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF741B47"/>
+      </top>
+      <bottom style="thick">
         <color rgb="FFFFFFFF"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FF674EA7"/>
       </left>
       <right style="medium">
         <color rgb="FFFFFFFF"/>
@@ -315,6 +388,21 @@
         <color rgb="FFFFFFFF"/>
       </left>
       <right style="medium">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="medium">
         <color rgb="FF674EA7"/>
       </right>
       <top style="medium">
@@ -322,6 +410,96 @@
       </top>
       <bottom style="medium">
         <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF741B47"/>
+      </left>
+      <right style="thick">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thick">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thick">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thick">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF741B47"/>
+      </right>
+      <top style="thick">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF741B47"/>
+      </left>
+      <right style="thick">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thick">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF741B47"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thick">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thick">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF741B47"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF741B47"/>
+      </right>
+      <top style="thick">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF741B47"/>
       </bottom>
       <diagonal/>
     </border>
@@ -374,7 +552,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -392,44 +570,13 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -439,6 +586,76 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -660,10 +877,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:K1002"/>
+  <dimension ref="B1:N1002"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1"/>
@@ -683,101 +900,151 @@
     <col min="15" max="26" width="9.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="14.4">
+    <row r="1" spans="2:14" ht="14.4">
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="2:11" ht="46.5" customHeight="1">
+    <row r="2" spans="2:14" ht="46.5" customHeight="1">
       <c r="B2" s="1"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="2:11" ht="48" customHeight="1" thickBot="1">
-      <c r="B3" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="3"/>
+    <row r="3" spans="2:14" ht="48" customHeight="1" thickBot="1">
+      <c r="B3" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="G3" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
-    </row>
-    <row r="4" spans="2:11" ht="35.25" customHeight="1" thickBot="1">
+      <c r="L3" s="3"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+    </row>
+    <row r="4" spans="2:14" ht="35.25" customHeight="1" thickTop="1" thickBot="1">
       <c r="B4" s="4" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="H4" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+    </row>
+    <row r="5" spans="2:14" ht="72" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B5" s="10">
+        <v>1</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="13">
+        <v>1</v>
+      </c>
+      <c r="H5" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+    </row>
+    <row r="6" spans="2:14" ht="69.75" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B6" s="16">
         <v>2</v>
       </c>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-    </row>
-    <row r="5" spans="2:11" ht="72" customHeight="1" thickBot="1">
-      <c r="B5" s="7">
-        <v>1</v>
-      </c>
-      <c r="C5" s="8" t="s">
+      <c r="C6" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="19">
+        <v>2</v>
+      </c>
+      <c r="H6" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="I6" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+    </row>
+    <row r="7" spans="2:14" ht="72" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B7" s="22">
         <v>3</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="C7" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="25"/>
+      <c r="G7" s="26">
+        <v>3</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+    </row>
+    <row r="8" spans="2:14" ht="66.75" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B8" s="27">
         <v>4</v>
       </c>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-    </row>
-    <row r="6" spans="2:11" ht="69.75" customHeight="1" thickBot="1">
-      <c r="B6" s="10">
-        <v>2</v>
-      </c>
-      <c r="C6" s="11" t="s">
+      <c r="C8" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="29">
+        <v>4</v>
+      </c>
+      <c r="H8" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+    </row>
+    <row r="9" spans="2:14" ht="73.5" customHeight="1" thickBot="1">
+      <c r="B9" s="22">
         <v>5</v>
       </c>
-      <c r="D6" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-    </row>
-    <row r="7" spans="2:11" ht="72" customHeight="1" thickBot="1">
-      <c r="B7" s="13">
-        <v>3</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="16"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-    </row>
-    <row r="8" spans="2:11" ht="66.75" customHeight="1" thickBot="1">
-      <c r="B8" s="17">
-        <v>4</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-    </row>
-    <row r="9" spans="2:11" ht="73.5" customHeight="1" thickBot="1">
-      <c r="B9" s="13">
-        <v>5</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>12</v>
+      <c r="C9" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="24" t="s">
+        <v>22</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
@@ -785,15 +1052,15 @@
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
     </row>
-    <row r="10" spans="2:11" ht="73.5" customHeight="1" thickBot="1">
-      <c r="B10" s="17">
+    <row r="10" spans="2:14" ht="73.5" customHeight="1" thickBot="1">
+      <c r="B10" s="27">
         <v>6</v>
       </c>
-      <c r="C10" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>14</v>
+      <c r="C10" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>24</v>
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
@@ -801,15 +1068,15 @@
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
     </row>
-    <row r="11" spans="2:11" ht="73.5" customHeight="1" thickBot="1">
-      <c r="B11" s="13">
+    <row r="11" spans="2:14" ht="73.5" customHeight="1" thickBot="1">
+      <c r="B11" s="22">
         <v>7</v>
       </c>
-      <c r="C11" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>16</v>
+      <c r="C11" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="24" t="s">
+        <v>26</v>
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
@@ -817,15 +1084,15 @@
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
     </row>
-    <row r="12" spans="2:11" ht="80.25" customHeight="1" thickBot="1">
-      <c r="B12" s="17">
+    <row r="12" spans="2:14" ht="80.25" customHeight="1" thickBot="1">
+      <c r="B12" s="27">
         <v>8</v>
       </c>
-      <c r="C12" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>18</v>
+      <c r="C12" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>28</v>
       </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
@@ -833,15 +1100,15 @@
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
     </row>
-    <row r="13" spans="2:11" ht="73.5" customHeight="1" thickBot="1">
-      <c r="B13" s="13">
+    <row r="13" spans="2:14" ht="73.5" customHeight="1" thickBot="1">
+      <c r="B13" s="22">
         <v>9</v>
       </c>
-      <c r="C13" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>20</v>
+      <c r="C13" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="24" t="s">
+        <v>30</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
@@ -849,133 +1116,133 @@
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
     </row>
-    <row r="14" spans="2:11" ht="67.5" customHeight="1" thickBot="1">
-      <c r="B14" s="17">
+    <row r="14" spans="2:14" ht="67.5" customHeight="1" thickBot="1">
+      <c r="B14" s="27">
         <v>10</v>
       </c>
-      <c r="C14" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>22</v>
-      </c>
+      <c r="C14" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-    </row>
-    <row r="15" spans="2:11" ht="57" customHeight="1" thickBot="1">
-      <c r="B15" s="13">
+    </row>
+    <row r="15" spans="2:14" ht="57" customHeight="1" thickBot="1">
+      <c r="B15" s="22">
         <v>11</v>
       </c>
-      <c r="C15" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>24</v>
-      </c>
+      <c r="C15" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-    </row>
-    <row r="16" spans="2:11" ht="69" customHeight="1" thickBot="1">
-      <c r="B16" s="17">
+    </row>
+    <row r="16" spans="2:14" ht="69" customHeight="1" thickBot="1">
+      <c r="B16" s="27">
         <v>12</v>
       </c>
-      <c r="C16" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>26</v>
-      </c>
+      <c r="C16" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-    </row>
-    <row r="17" spans="2:11" ht="72" customHeight="1" thickBot="1">
-      <c r="B17" s="13">
+    </row>
+    <row r="17" spans="2:10" ht="72" customHeight="1" thickBot="1">
+      <c r="B17" s="22">
         <v>13</v>
       </c>
-      <c r="C17" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" s="15" t="s">
-        <v>28</v>
-      </c>
+      <c r="C17" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-    </row>
-    <row r="18" spans="2:11" ht="75" customHeight="1" thickBot="1">
-      <c r="B18" s="17">
+    </row>
+    <row r="18" spans="2:10" ht="75" customHeight="1" thickBot="1">
+      <c r="B18" s="27">
         <v>14</v>
       </c>
-      <c r="C18" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="2:11" ht="57" customHeight="1" thickBot="1">
-      <c r="B19" s="13">
+      <c r="C18" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" ht="57" customHeight="1" thickBot="1">
+      <c r="B19" s="22">
         <v>15</v>
       </c>
-      <c r="C19" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="D19" s="20" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="2:11" ht="60" customHeight="1" thickBot="1">
-      <c r="B20" s="21">
+      <c r="C19" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" s="33" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" ht="60" customHeight="1" thickBot="1">
+      <c r="B20" s="34">
         <v>16</v>
       </c>
-      <c r="C20" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="D20" s="23" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="2:11" ht="60.75" customHeight="1"/>
-    <row r="22" spans="2:11" ht="14.4">
+      <c r="C20" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" s="36" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" ht="60.75" customHeight="1"/>
+    <row r="22" spans="2:10" ht="14.4">
       <c r="B22" s="1"/>
     </row>
-    <row r="23" spans="2:11" ht="15.75" customHeight="1">
+    <row r="23" spans="2:10" ht="15.75" customHeight="1">
       <c r="B23" s="1"/>
     </row>
-    <row r="24" spans="2:11" ht="15.75" customHeight="1">
+    <row r="24" spans="2:10" ht="15.75" customHeight="1">
       <c r="B24" s="1"/>
     </row>
-    <row r="25" spans="2:11" ht="15.75" customHeight="1">
+    <row r="25" spans="2:10" ht="15.75" customHeight="1">
       <c r="B25" s="1"/>
     </row>
-    <row r="26" spans="2:11" ht="15.75" customHeight="1">
+    <row r="26" spans="2:10" ht="15.75" customHeight="1">
       <c r="B26" s="1"/>
     </row>
-    <row r="27" spans="2:11" ht="15.75" customHeight="1">
+    <row r="27" spans="2:10" ht="15.75" customHeight="1">
       <c r="B27" s="1"/>
     </row>
-    <row r="28" spans="2:11" ht="15.75" customHeight="1">
+    <row r="28" spans="2:10" ht="15.75" customHeight="1">
       <c r="B28" s="1"/>
     </row>
-    <row r="29" spans="2:11" ht="15.75" customHeight="1">
+    <row r="29" spans="2:10" ht="15.75" customHeight="1">
       <c r="B29" s="1"/>
     </row>
-    <row r="30" spans="2:11" ht="15.75" customHeight="1">
-      <c r="F30" s="16"/>
-    </row>
-    <row r="31" spans="2:11" ht="15.75" customHeight="1"/>
-    <row r="32" spans="2:11" ht="15.75" customHeight="1"/>
+    <row r="30" spans="2:10" ht="15.75" customHeight="1">
+      <c r="F30" s="25"/>
+    </row>
+    <row r="31" spans="2:10" ht="15.75" customHeight="1"/>
+    <row r="32" spans="2:10" ht="15.75" customHeight="1"/>
     <row r="33" spans="2:5" ht="43.5" customHeight="1"/>
     <row r="34" spans="2:5" ht="43.5" customHeight="1"/>
     <row r="35" spans="2:5" ht="43.5" customHeight="1"/>
@@ -986,8 +1253,8 @@
     <row r="38" spans="2:5" ht="15.75" customHeight="1"/>
     <row r="39" spans="2:5" ht="27.75" customHeight="1"/>
     <row r="40" spans="2:5" ht="54.75" customHeight="1">
-      <c r="E40" s="16" t="s">
-        <v>35</v>
+      <c r="E40" s="25" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="41" spans="2:5" ht="54.75" customHeight="1"/>
@@ -3851,7 +4118,8 @@
       <c r="B1002" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
+    <mergeCell ref="G3:I3"/>
     <mergeCell ref="B3:D3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/Desarrollo/SGEH/Fuentes/SGEH-DEC.xlsx
+++ b/Desarrollo/SGEH/Fuentes/SGEH-DEC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\UNMSM\CICLO VI\GCS-WONG\Estado de Cambio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D68DCD0C-0F59-4D35-9132-AE8FAABD2947}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FB80AA7-9CE1-4537-AC89-4228CC3F6FA6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="54">
   <si>
     <t>NIVELES DE URGENCIA</t>
   </si>
@@ -106,6 +106,9 @@
     <t>Se asignó al encargado de gestión de cambios dar seguimiento a la solicitud de cambio</t>
   </si>
   <si>
+    <t>TIPOS DE IMPACTO</t>
+  </si>
+  <si>
     <t>Analizado</t>
   </si>
   <si>
@@ -118,16 +121,34 @@
     <t>El encargado de gestión de cambios rechaza solicitud de cambios porque la descripción y/o justificación no son específicas o no son viables.</t>
   </si>
   <si>
+    <t>Bajo impacto</t>
+  </si>
+  <si>
+    <t>El cambio no genera mayor impacto en los módulos del software. Además que no representan pérdidas para HoliMori</t>
+  </si>
+  <si>
     <t>Clasificado</t>
   </si>
   <si>
     <t>El encargado de gestión de cambios clasifica la solicitud de cambio.</t>
   </si>
   <si>
+    <t>Medio impacto</t>
+  </si>
+  <si>
+    <t>El cambio no es tan amplio, por lo que no afecta en muchos módulos del software, pero pueden representar pérdidas para HoliMori</t>
+  </si>
+  <si>
     <t>Evaluado</t>
   </si>
   <si>
     <t>La solicitud de cambio ha sido evaluada y analizada por el comité de control de cambios.</t>
+  </si>
+  <si>
+    <t>Alto impacto</t>
+  </si>
+  <si>
+    <t>El cambio produce modificación en varios módulos o campos del software y representan una pérdida económica para HoliMori</t>
   </si>
   <si>
     <t>Aprobado</t>
@@ -226,7 +247,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -269,8 +290,20 @@
         <bgColor rgb="FFFDFDFD"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB45F06"/>
+        <bgColor rgb="FFB45F06"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCE5CD"/>
+        <bgColor rgb="FFFCE5CD"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="19">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -505,6 +538,126 @@
     </border>
     <border>
       <left style="medium">
+        <color rgb="FFB45F06"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFB45F06"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFB45F06"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFB45F06"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFB45F06"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFB45F06"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFB45F06"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFB45F06"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFB45F06"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFB45F06"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFB45F06"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFB45F06"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color rgb="FF674EA7"/>
       </left>
       <right style="medium">
@@ -548,11 +701,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color rgb="FF741B47"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFB45F06"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -643,25 +807,61 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -879,8 +1079,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:N1002"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9:I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1"/>
@@ -909,16 +1109,16 @@
       <c r="K2" s="2"/>
     </row>
     <row r="3" spans="2:14" ht="48" customHeight="1" thickBot="1">
-      <c r="B3" s="37" t="s">
-        <v>46</v>
-      </c>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="G3" s="37" t="s">
+      <c r="B3" s="48" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="G3" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="49"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
       <c r="L3" s="3"/>
@@ -1036,7 +1236,7 @@
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
     </row>
-    <row r="9" spans="2:14" ht="73.5" customHeight="1" thickBot="1">
+    <row r="9" spans="2:14" ht="73.5" customHeight="1" thickTop="1" thickBot="1">
       <c r="B9" s="22">
         <v>5</v>
       </c>
@@ -1046,85 +1246,126 @@
       <c r="D9" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
+      <c r="G9" s="50" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="50"/>
+      <c r="I9" s="50"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
     </row>
     <row r="10" spans="2:14" ht="73.5" customHeight="1" thickBot="1">
       <c r="B10" s="27">
         <v>6</v>
       </c>
       <c r="C10" s="28" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
+        <v>25</v>
+      </c>
+      <c r="G10" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="H10" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="I10" s="34" t="s">
+        <v>3</v>
+      </c>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
     </row>
     <row r="11" spans="2:14" ht="73.5" customHeight="1" thickBot="1">
       <c r="B11" s="22">
         <v>7</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D11" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
+        <v>27</v>
+      </c>
+      <c r="G11" s="35">
+        <v>1</v>
+      </c>
+      <c r="H11" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11" s="37" t="s">
+        <v>29</v>
+      </c>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
     </row>
     <row r="12" spans="2:14" ht="80.25" customHeight="1" thickBot="1">
       <c r="B12" s="27">
         <v>8</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
+        <v>31</v>
+      </c>
+      <c r="G12" s="38">
+        <v>2</v>
+      </c>
+      <c r="H12" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="I12" s="39" t="s">
+        <v>33</v>
+      </c>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
     </row>
     <row r="13" spans="2:14" ht="73.5" customHeight="1" thickBot="1">
       <c r="B13" s="22">
         <v>9</v>
       </c>
-      <c r="C13" s="32" t="s">
-        <v>29</v>
+      <c r="C13" s="40" t="s">
+        <v>34</v>
       </c>
       <c r="D13" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
+        <v>35</v>
+      </c>
+      <c r="G13" s="41">
+        <v>3</v>
+      </c>
+      <c r="H13" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="I13" s="43" t="s">
+        <v>37</v>
+      </c>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
     </row>
     <row r="14" spans="2:14" ht="67.5" customHeight="1" thickBot="1">
       <c r="B14" s="27">
         <v>10</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
@@ -1136,11 +1377,11 @@
       <c r="B15" s="22">
         <v>11</v>
       </c>
-      <c r="C15" s="32" t="s">
-        <v>33</v>
+      <c r="C15" s="40" t="s">
+        <v>40</v>
       </c>
       <c r="D15" s="24" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -1153,10 +1394,10 @@
         <v>12</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
@@ -1168,11 +1409,11 @@
       <c r="B17" s="22">
         <v>13</v>
       </c>
-      <c r="C17" s="32" t="s">
-        <v>37</v>
+      <c r="C17" s="40" t="s">
+        <v>44</v>
       </c>
       <c r="D17" s="24" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -1185,32 +1426,32 @@
         <v>14</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="2:10" ht="57" customHeight="1" thickBot="1">
       <c r="B19" s="22">
         <v>15</v>
       </c>
-      <c r="C19" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="D19" s="33" t="s">
-        <v>42</v>
+      <c r="C19" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" s="44" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="2:10" ht="60" customHeight="1" thickBot="1">
-      <c r="B20" s="34">
+      <c r="B20" s="45">
         <v>16</v>
       </c>
-      <c r="C20" s="35" t="s">
-        <v>43</v>
-      </c>
-      <c r="D20" s="36" t="s">
-        <v>44</v>
+      <c r="C20" s="46" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" s="47" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="2:10" ht="60.75" customHeight="1"/>
@@ -1254,7 +1495,7 @@
     <row r="39" spans="2:5" ht="27.75" customHeight="1"/>
     <row r="40" spans="2:5" ht="54.75" customHeight="1">
       <c r="E40" s="25" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
     </row>
     <row r="41" spans="2:5" ht="54.75" customHeight="1"/>
@@ -4118,8 +4359,9 @@
       <c r="B1002" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="G3:I3"/>
+    <mergeCell ref="G9:I9"/>
     <mergeCell ref="B3:D3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/Desarrollo/SGEH/Fuentes/SGEH-DEC.xlsx
+++ b/Desarrollo/SGEH/Fuentes/SGEH-DEC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\UNMSM\CICLO VI\GCS-WONG\Estado de Cambio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FB80AA7-9CE1-4537-AC89-4228CC3F6FA6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCAF5AA0-771C-4BF6-9D23-3BF74D7B8C8D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="67">
   <si>
     <t>NIVELES DE URGENCIA</t>
   </si>
@@ -157,6 +157,9 @@
     <t>La solicitud de cambio ha sido aprobada por  el dueño del proceso</t>
   </si>
   <si>
+    <t>TIPO DE RIESGO</t>
+  </si>
+  <si>
     <t>Desaprobado</t>
   </si>
   <si>
@@ -169,28 +172,64 @@
     <t>Se ha realizado la planificación de actividades que se describe en la solicitud de cambio emitida por el usuario.</t>
   </si>
   <si>
+    <t>Calidad</t>
+  </si>
+  <si>
+    <t>El cambio amenaza la mantenibilidad, funcionalidad, eficiencia o cualquier tipo de métrica relacionado a la calidad del software</t>
+  </si>
+  <si>
     <t>Archivado</t>
   </si>
   <si>
     <t>La solicitud de cambio se archiva por encargado de gestión de cambios</t>
   </si>
   <si>
+    <t>Técnico</t>
+  </si>
+  <si>
+    <t>Amenazan la calidad y la planificación temporal del software que hay que producir. o Identifican posibles problemas de diseño, implementación, interfaz, verificación y mantenimiento.</t>
+  </si>
+  <si>
     <t>Implementado</t>
   </si>
   <si>
     <t>Se ha implementado la solicitud de cambio emitida por el usuario.</t>
   </si>
   <si>
+    <t>Presupuesto</t>
+  </si>
+  <si>
+    <t>Se aproxima a la posibilidad de que el proyecto no será tan rentable como se esperaba debido a los errores de la empresa o de la evaluación inicial del proyecto.</t>
+  </si>
+  <si>
     <t>Verificado</t>
   </si>
   <si>
     <t>El usuario ha verificado la funcionalidad del cambio.</t>
   </si>
   <si>
+    <t>Subestimación</t>
+  </si>
+  <si>
+    <t>Fracaso en cumplir los tiempos acordados y en cambiar o reparar los defectos o fallas reportados. Se subestima el tamaño del cambio.</t>
+  </si>
+  <si>
     <t>Terminado</t>
   </si>
   <si>
     <t>La solicitud de cambio se da por terminado.</t>
+  </si>
+  <si>
+    <t>Rotación del personal</t>
+  </si>
+  <si>
+    <t>El personal contratado abandona el proyecto antes de que finalice o está indispuesto y no se hace cargo de la modificación requerida.</t>
+  </si>
+  <si>
+    <t>Requerimientos</t>
+  </si>
+  <si>
+    <t>Existencia de más cambios de requerimientos de los previstos inicialmente</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -247,7 +286,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -302,8 +341,20 @@
         <bgColor rgb="FFFCE5CD"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF990000"/>
+        <bgColor rgb="FF990000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF4CCCC"/>
+        <bgColor rgb="FFF4CCCC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="28">
+  <borders count="37">
     <border>
       <left/>
       <right/>
@@ -657,6 +708,81 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thick">
+        <color rgb="FF990000"/>
+      </left>
+      <right style="thick">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF990000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thick">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF990000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF990000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF990000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF990000"/>
+      </left>
+      <right style="thick">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thick">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF990000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color rgb="FF674EA7"/>
       </left>
@@ -698,6 +824,62 @@
       </top>
       <bottom style="medium">
         <color rgb="FF674EA7"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF990000"/>
+      </left>
+      <right style="thick">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thick">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF990000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thick">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thick">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF990000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF990000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF990000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FFB45F06"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF990000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -716,7 +898,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -843,23 +1025,65 @@
     <xf numFmtId="0" fontId="6" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1079,8 +1303,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:N1002"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9:I13"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1"/>
@@ -1109,16 +1333,16 @@
       <c r="K2" s="2"/>
     </row>
     <row r="3" spans="2:14" ht="48" customHeight="1" thickBot="1">
-      <c r="B3" s="48" t="s">
-        <v>53</v>
-      </c>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="G3" s="48" t="s">
+      <c r="B3" s="61" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="G3" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="H3" s="49"/>
-      <c r="I3" s="49"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
       <c r="L3" s="3"/>
@@ -1246,11 +1470,11 @@
       <c r="D9" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="G9" s="50" t="s">
+      <c r="G9" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="H9" s="50"/>
-      <c r="I9" s="50"/>
+      <c r="H9" s="63"/>
+      <c r="I9" s="63"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
@@ -1367,123 +1591,192 @@
       <c r="D14" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
+      <c r="G14" s="64" t="s">
+        <v>40</v>
+      </c>
+      <c r="H14" s="64"/>
+      <c r="I14" s="64"/>
       <c r="J14" s="2"/>
-    </row>
-    <row r="15" spans="2:14" ht="57" customHeight="1" thickBot="1">
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+    </row>
+    <row r="15" spans="2:14" ht="57" customHeight="1" thickTop="1" thickBot="1">
       <c r="B15" s="22">
         <v>11</v>
       </c>
       <c r="C15" s="40" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D15" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="G15" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="H15" s="45" t="s">
+        <v>4</v>
+      </c>
+      <c r="I15" s="46" t="s">
+        <v>3</v>
+      </c>
       <c r="J15" s="2"/>
-    </row>
-    <row r="16" spans="2:14" ht="69" customHeight="1" thickBot="1">
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+    </row>
+    <row r="16" spans="2:14" ht="69" customHeight="1" thickTop="1" thickBot="1">
       <c r="B16" s="27">
         <v>12</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="G16" s="47">
+        <v>1</v>
+      </c>
+      <c r="H16" s="48" t="s">
+        <v>45</v>
+      </c>
+      <c r="I16" s="49" t="s">
+        <v>46</v>
+      </c>
       <c r="J16" s="2"/>
-    </row>
-    <row r="17" spans="2:10" ht="72" customHeight="1" thickBot="1">
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+    </row>
+    <row r="17" spans="2:14" ht="72" customHeight="1" thickTop="1" thickBot="1">
       <c r="B17" s="22">
         <v>13</v>
       </c>
       <c r="C17" s="40" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D17" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
+        <v>48</v>
+      </c>
+      <c r="G17" s="50">
+        <v>2</v>
+      </c>
+      <c r="H17" s="51" t="s">
+        <v>49</v>
+      </c>
+      <c r="I17" s="52" t="s">
+        <v>50</v>
+      </c>
       <c r="J17" s="2"/>
-    </row>
-    <row r="18" spans="2:10" ht="75" customHeight="1" thickBot="1">
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+    </row>
+    <row r="18" spans="2:14" ht="75" customHeight="1" thickTop="1" thickBot="1">
       <c r="B18" s="27">
         <v>14</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10" ht="57" customHeight="1" thickBot="1">
+        <v>52</v>
+      </c>
+      <c r="G18" s="47">
+        <v>3</v>
+      </c>
+      <c r="H18" s="48" t="s">
+        <v>53</v>
+      </c>
+      <c r="I18" s="49" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" ht="57" customHeight="1" thickTop="1" thickBot="1">
       <c r="B19" s="22">
         <v>15</v>
       </c>
       <c r="C19" s="40" t="s">
-        <v>48</v>
-      </c>
-      <c r="D19" s="44" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="20" spans="2:10" ht="60" customHeight="1" thickBot="1">
-      <c r="B20" s="45">
+        <v>55</v>
+      </c>
+      <c r="D19" s="53" t="s">
+        <v>56</v>
+      </c>
+      <c r="G19" s="50">
+        <v>4</v>
+      </c>
+      <c r="H19" s="51" t="s">
+        <v>57</v>
+      </c>
+      <c r="I19" s="52" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" ht="60" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B20" s="54">
         <v>16</v>
       </c>
-      <c r="C20" s="46" t="s">
-        <v>50</v>
-      </c>
-      <c r="D20" s="47" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="21" spans="2:10" ht="60.75" customHeight="1"/>
-    <row r="22" spans="2:10" ht="14.4">
+      <c r="C20" s="55" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" s="56" t="s">
+        <v>60</v>
+      </c>
+      <c r="G20" s="57">
+        <v>5</v>
+      </c>
+      <c r="H20" s="48" t="s">
+        <v>61</v>
+      </c>
+      <c r="I20" s="49" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" ht="60.75" customHeight="1" thickTop="1" thickBot="1">
+      <c r="G21" s="58">
+        <v>6</v>
+      </c>
+      <c r="H21" s="59" t="s">
+        <v>63</v>
+      </c>
+      <c r="I21" s="60" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" thickTop="1">
       <c r="B22" s="1"/>
     </row>
-    <row r="23" spans="2:10" ht="15.75" customHeight="1">
+    <row r="23" spans="2:14" ht="15.75" customHeight="1">
       <c r="B23" s="1"/>
     </row>
-    <row r="24" spans="2:10" ht="15.75" customHeight="1">
+    <row r="24" spans="2:14" ht="15.75" customHeight="1">
       <c r="B24" s="1"/>
     </row>
-    <row r="25" spans="2:10" ht="15.75" customHeight="1">
+    <row r="25" spans="2:14" ht="15.75" customHeight="1">
       <c r="B25" s="1"/>
     </row>
-    <row r="26" spans="2:10" ht="15.75" customHeight="1">
+    <row r="26" spans="2:14" ht="15.75" customHeight="1">
       <c r="B26" s="1"/>
     </row>
-    <row r="27" spans="2:10" ht="15.75" customHeight="1">
+    <row r="27" spans="2:14" ht="15.75" customHeight="1">
       <c r="B27" s="1"/>
     </row>
-    <row r="28" spans="2:10" ht="15.75" customHeight="1">
+    <row r="28" spans="2:14" ht="15.75" customHeight="1">
       <c r="B28" s="1"/>
     </row>
-    <row r="29" spans="2:10" ht="15.75" customHeight="1">
+    <row r="29" spans="2:14" ht="15.75" customHeight="1">
       <c r="B29" s="1"/>
     </row>
-    <row r="30" spans="2:10" ht="15.75" customHeight="1">
+    <row r="30" spans="2:14" ht="15.75" customHeight="1">
       <c r="F30" s="25"/>
     </row>
-    <row r="31" spans="2:10" ht="15.75" customHeight="1"/>
-    <row r="32" spans="2:10" ht="15.75" customHeight="1"/>
+    <row r="31" spans="2:14" ht="15.75" customHeight="1"/>
+    <row r="32" spans="2:14" ht="15.75" customHeight="1"/>
     <row r="33" spans="2:5" ht="43.5" customHeight="1"/>
     <row r="34" spans="2:5" ht="43.5" customHeight="1"/>
     <row r="35" spans="2:5" ht="43.5" customHeight="1"/>
@@ -1495,7 +1788,7 @@
     <row r="39" spans="2:5" ht="27.75" customHeight="1"/>
     <row r="40" spans="2:5" ht="54.75" customHeight="1">
       <c r="E40" s="25" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
     </row>
     <row r="41" spans="2:5" ht="54.75" customHeight="1"/>
@@ -4359,9 +4652,10 @@
       <c r="B1002" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="G3:I3"/>
     <mergeCell ref="G9:I9"/>
+    <mergeCell ref="G14:I14"/>
     <mergeCell ref="B3:D3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/Desarrollo/SGEH/Fuentes/SGEH-DEC.xlsx
+++ b/Desarrollo/SGEH/Fuentes/SGEH-DEC.xlsx
@@ -8,24 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\UNMSM\CICLO VI\GCS-WONG\Estado de Cambio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCAF5AA0-771C-4BF6-9D23-3BF74D7B8C8D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0165B857-80C0-41B1-A730-02A09EFF91A1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Estados de Solicitud de Cambio" sheetId="1" r:id="rId1"/>
+    <sheet name="Solicitudes de Cambio" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="0"/>
   <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId7" roundtripDataSignature="AMtx7mgpXwrv42td76QbkWjxKitpKvM/vw=="/>
     </ext>
@@ -34,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="86">
   <si>
     <t>NIVELES DE URGENCIA</t>
   </si>
@@ -235,14 +227,75 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>ESTADOS DE SOLICITUD DE CAMBIO</t>
+    <t>GRUPO 3 - HOLIMORI</t>
+  </si>
+  <si>
+    <t>Fecha</t>
+  </si>
+  <si>
+    <t>Sistema</t>
+  </si>
+  <si>
+    <t>Fuente</t>
+  </si>
+  <si>
+    <t>Autor</t>
+  </si>
+  <si>
+    <t>Justificación</t>
+  </si>
+  <si>
+    <t>EstadoID</t>
+  </si>
+  <si>
+    <t>CCC(ID)</t>
+  </si>
+  <si>
+    <t>Tipo de impacto (ID)</t>
+  </si>
+  <si>
+    <t>Nivel de urgencia (ID)</t>
+  </si>
+  <si>
+    <t>Tipos de riesgos (ID)</t>
+  </si>
+  <si>
+    <t>Nivel de riesgo</t>
+  </si>
+  <si>
+    <t>F. de inicio de atención</t>
+  </si>
+  <si>
+    <t>F. de fin de atención</t>
+  </si>
+  <si>
+    <t>Persona responsable de la atención</t>
+  </si>
+  <si>
+    <t>F. de recepción</t>
+  </si>
+  <si>
+    <t>F. de implementación</t>
+  </si>
+  <si>
+    <t>F. de verificación</t>
+  </si>
+  <si>
+    <t>Usuario que verificó</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESTADO DE SOLICITUD DE CAMBIOS </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
+    <numFmt numFmtId="165" formatCode="d/m/yyyy"/>
+  </numFmts>
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -285,8 +338,30 @@
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Nunito"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Comfortaa"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Comfortaa"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Comfortaa"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -353,8 +428,20 @@
         <bgColor rgb="FFF4CCCC"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF3D85C6"/>
+        <bgColor rgb="FF3D85C6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCFE2F3"/>
+        <bgColor rgb="FFCFE2F3"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="37">
+  <borders count="43">
     <border>
       <left/>
       <right/>
@@ -873,24 +960,116 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color rgb="FFB45F06"/>
+      <left style="thick">
+        <color rgb="FF3D85C6"/>
+      </left>
+      <right style="thick">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF3D85C6"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thick">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF3D85C6"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF3D85C6"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF3D85C6"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF3D85C6"/>
+      </left>
+      <right style="thick">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thick">
+        <color rgb="FFFFFFFF"/>
       </top>
       <bottom style="thick">
-        <color rgb="FF990000"/>
+        <color rgb="FFFFFFFF"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thick">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF3D85C6"/>
+      </right>
       <top style="thick">
-        <color rgb="FF741B47"/>
+        <color rgb="FFFFFFFF"/>
       </top>
-      <bottom style="medium">
-        <color rgb="FFB45F06"/>
+      <bottom style="thick">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF3D85C6"/>
+      </left>
+      <right style="thick">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thick">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF3D85C6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thick">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thick">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF3D85C6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF3D85C6"/>
+      </right>
+      <top style="thick">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF3D85C6"/>
       </bottom>
       <diagonal/>
     </border>
@@ -898,12 +1077,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1076,16 +1258,96 @@
     <xf numFmtId="0" fontId="6" fillId="11" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="13" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="13" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="7" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="7" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1303,7 +1565,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:N1002"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
@@ -1332,172 +1594,172 @@
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="2:14" ht="48" customHeight="1" thickBot="1">
-      <c r="B3" s="61" t="s">
-        <v>66</v>
-      </c>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="G3" s="61" t="s">
+    <row r="3" spans="2:14" ht="48" customHeight="1">
+      <c r="B3" s="92" t="s">
+        <v>85</v>
+      </c>
+      <c r="C3" s="93"/>
+      <c r="D3" s="93"/>
+      <c r="G3" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
+      <c r="H3" s="93"/>
+      <c r="I3" s="93"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
-      <c r="L3" s="3"/>
+      <c r="L3" s="4"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
     </row>
-    <row r="4" spans="2:14" ht="35.25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B4" s="4" t="s">
+    <row r="4" spans="2:14" ht="35.25" customHeight="1">
+      <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="I4" s="10" t="s">
         <v>3</v>
       </c>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="2:14" ht="72" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B5" s="10">
+    <row r="5" spans="2:14" ht="72" customHeight="1">
+      <c r="B5" s="11">
         <v>1</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="13">
+      <c r="G5" s="14">
         <v>1</v>
       </c>
-      <c r="H5" s="14" t="s">
+      <c r="H5" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="15" t="s">
+      <c r="I5" s="16" t="s">
         <v>8</v>
       </c>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="2:14" ht="69.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B6" s="16">
+    <row r="6" spans="2:14" ht="69.75" customHeight="1">
+      <c r="B6" s="17">
         <v>2</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="19">
+      <c r="G6" s="20">
         <v>2</v>
       </c>
-      <c r="H6" s="20" t="s">
+      <c r="H6" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="I6" s="21" t="s">
+      <c r="I6" s="22" t="s">
         <v>12</v>
       </c>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
     </row>
-    <row r="7" spans="2:14" ht="72" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B7" s="22">
+    <row r="7" spans="2:14" ht="72" customHeight="1">
+      <c r="B7" s="23">
         <v>3</v>
       </c>
-      <c r="C7" s="23" t="s">
+      <c r="C7" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="24" t="s">
+      <c r="D7" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="25"/>
-      <c r="G7" s="26">
+      <c r="E7" s="26"/>
+      <c r="G7" s="27">
         <v>3</v>
       </c>
-      <c r="H7" s="14" t="s">
+      <c r="H7" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="15" t="s">
+      <c r="I7" s="16" t="s">
         <v>16</v>
       </c>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
     </row>
-    <row r="8" spans="2:14" ht="66.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B8" s="27">
+    <row r="8" spans="2:14" ht="66.75" customHeight="1">
+      <c r="B8" s="28">
         <v>4</v>
       </c>
-      <c r="C8" s="28" t="s">
+      <c r="C8" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="D8" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="29">
+      <c r="G8" s="30">
         <v>4</v>
       </c>
-      <c r="H8" s="30" t="s">
+      <c r="H8" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="I8" s="31" t="s">
+      <c r="I8" s="32" t="s">
         <v>20</v>
       </c>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
     </row>
-    <row r="9" spans="2:14" ht="73.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B9" s="22">
+    <row r="9" spans="2:14" ht="73.5" customHeight="1">
+      <c r="B9" s="23">
         <v>5</v>
       </c>
-      <c r="C9" s="23" t="s">
+      <c r="C9" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="24" t="s">
+      <c r="D9" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="G9" s="63" t="s">
+      <c r="G9" s="92" t="s">
         <v>23</v>
       </c>
-      <c r="H9" s="63"/>
-      <c r="I9" s="63"/>
+      <c r="H9" s="93"/>
+      <c r="I9" s="93"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
     </row>
-    <row r="10" spans="2:14" ht="73.5" customHeight="1" thickBot="1">
-      <c r="B10" s="27">
+    <row r="10" spans="2:14" ht="73.5" customHeight="1">
+      <c r="B10" s="28">
         <v>6</v>
       </c>
-      <c r="C10" s="28" t="s">
+      <c r="C10" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="D10" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="G10" s="32" t="s">
+      <c r="G10" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="H10" s="33" t="s">
+      <c r="H10" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="I10" s="34" t="s">
+      <c r="I10" s="35" t="s">
         <v>3</v>
       </c>
       <c r="J10" s="2"/>
@@ -1506,23 +1768,23 @@
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
     </row>
-    <row r="11" spans="2:14" ht="73.5" customHeight="1" thickBot="1">
-      <c r="B11" s="22">
+    <row r="11" spans="2:14" ht="73.5" customHeight="1">
+      <c r="B11" s="23">
         <v>7</v>
       </c>
-      <c r="C11" s="23" t="s">
+      <c r="C11" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="24" t="s">
+      <c r="D11" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="G11" s="35">
+      <c r="G11" s="36">
         <v>1</v>
       </c>
-      <c r="H11" s="36" t="s">
+      <c r="H11" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="I11" s="37" t="s">
+      <c r="I11" s="38" t="s">
         <v>29</v>
       </c>
       <c r="J11" s="2"/>
@@ -1531,23 +1793,23 @@
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
     </row>
-    <row r="12" spans="2:14" ht="80.25" customHeight="1" thickBot="1">
-      <c r="B12" s="27">
+    <row r="12" spans="2:14" ht="80.25" customHeight="1">
+      <c r="B12" s="28">
         <v>8</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="18" t="s">
+      <c r="D12" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="G12" s="38">
+      <c r="G12" s="39">
         <v>2</v>
       </c>
-      <c r="H12" s="23" t="s">
+      <c r="H12" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="I12" s="39" t="s">
+      <c r="I12" s="40" t="s">
         <v>33</v>
       </c>
       <c r="J12" s="2"/>
@@ -1556,23 +1818,23 @@
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
     </row>
-    <row r="13" spans="2:14" ht="73.5" customHeight="1" thickBot="1">
-      <c r="B13" s="22">
+    <row r="13" spans="2:14" ht="73.5" customHeight="1">
+      <c r="B13" s="23">
         <v>9</v>
       </c>
-      <c r="C13" s="40" t="s">
+      <c r="C13" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="24" t="s">
+      <c r="D13" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="G13" s="41">
+      <c r="G13" s="42">
         <v>3</v>
       </c>
-      <c r="H13" s="42" t="s">
+      <c r="H13" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="I13" s="43" t="s">
+      <c r="I13" s="44" t="s">
         <v>37</v>
       </c>
       <c r="J13" s="2"/>
@@ -1581,44 +1843,44 @@
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
     </row>
-    <row r="14" spans="2:14" ht="67.5" customHeight="1" thickBot="1">
-      <c r="B14" s="27">
+    <row r="14" spans="2:14" ht="67.5" customHeight="1">
+      <c r="B14" s="28">
         <v>10</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="C14" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="18" t="s">
+      <c r="D14" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="G14" s="64" t="s">
+      <c r="G14" s="92" t="s">
         <v>40</v>
       </c>
-      <c r="H14" s="64"/>
-      <c r="I14" s="64"/>
+      <c r="H14" s="93"/>
+      <c r="I14" s="93"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
     </row>
-    <row r="15" spans="2:14" ht="57" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B15" s="22">
+    <row r="15" spans="2:14" ht="57" customHeight="1">
+      <c r="B15" s="23">
         <v>11</v>
       </c>
-      <c r="C15" s="40" t="s">
+      <c r="C15" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="D15" s="24" t="s">
+      <c r="D15" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="G15" s="44" t="s">
+      <c r="G15" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="H15" s="45" t="s">
+      <c r="H15" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="I15" s="46" t="s">
+      <c r="I15" s="47" t="s">
         <v>3</v>
       </c>
       <c r="J15" s="2"/>
@@ -1627,23 +1889,23 @@
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
     </row>
-    <row r="16" spans="2:14" ht="69" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B16" s="27">
+    <row r="16" spans="2:14" ht="69" customHeight="1">
+      <c r="B16" s="28">
         <v>12</v>
       </c>
-      <c r="C16" s="17" t="s">
+      <c r="C16" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="D16" s="18" t="s">
+      <c r="D16" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="G16" s="47">
+      <c r="G16" s="48">
         <v>1</v>
       </c>
-      <c r="H16" s="48" t="s">
+      <c r="H16" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="I16" s="49" t="s">
+      <c r="I16" s="50" t="s">
         <v>46</v>
       </c>
       <c r="J16" s="2"/>
@@ -1652,23 +1914,23 @@
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
     </row>
-    <row r="17" spans="2:14" ht="72" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B17" s="22">
+    <row r="17" spans="2:14" ht="72" customHeight="1">
+      <c r="B17" s="23">
         <v>13</v>
       </c>
-      <c r="C17" s="40" t="s">
+      <c r="C17" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="D17" s="24" t="s">
+      <c r="D17" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="G17" s="50">
+      <c r="G17" s="51">
         <v>2</v>
       </c>
-      <c r="H17" s="51" t="s">
+      <c r="H17" s="52" t="s">
         <v>49</v>
       </c>
-      <c r="I17" s="52" t="s">
+      <c r="I17" s="53" t="s">
         <v>50</v>
       </c>
       <c r="J17" s="2"/>
@@ -1677,78 +1939,78 @@
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
     </row>
-    <row r="18" spans="2:14" ht="75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B18" s="27">
+    <row r="18" spans="2:14" ht="75" customHeight="1">
+      <c r="B18" s="28">
         <v>14</v>
       </c>
-      <c r="C18" s="17" t="s">
+      <c r="C18" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="D18" s="18" t="s">
+      <c r="D18" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="G18" s="47">
+      <c r="G18" s="48">
         <v>3</v>
       </c>
-      <c r="H18" s="48" t="s">
+      <c r="H18" s="49" t="s">
         <v>53</v>
       </c>
-      <c r="I18" s="49" t="s">
+      <c r="I18" s="50" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="19" spans="2:14" ht="57" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B19" s="22">
+    <row r="19" spans="2:14" ht="57" customHeight="1">
+      <c r="B19" s="23">
         <v>15</v>
       </c>
-      <c r="C19" s="40" t="s">
+      <c r="C19" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="D19" s="53" t="s">
+      <c r="D19" s="54" t="s">
         <v>56</v>
       </c>
-      <c r="G19" s="50">
+      <c r="G19" s="51">
         <v>4</v>
       </c>
-      <c r="H19" s="51" t="s">
+      <c r="H19" s="52" t="s">
         <v>57</v>
       </c>
-      <c r="I19" s="52" t="s">
+      <c r="I19" s="53" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="20" spans="2:14" ht="60" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B20" s="54">
+    <row r="20" spans="2:14" ht="60" customHeight="1">
+      <c r="B20" s="55">
         <v>16</v>
       </c>
-      <c r="C20" s="55" t="s">
+      <c r="C20" s="56" t="s">
         <v>59</v>
       </c>
-      <c r="D20" s="56" t="s">
+      <c r="D20" s="57" t="s">
         <v>60</v>
       </c>
-      <c r="G20" s="57">
+      <c r="G20" s="58">
         <v>5</v>
       </c>
-      <c r="H20" s="48" t="s">
+      <c r="H20" s="49" t="s">
         <v>61</v>
       </c>
-      <c r="I20" s="49" t="s">
+      <c r="I20" s="50" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="21" spans="2:14" ht="60.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="G21" s="58">
+    <row r="21" spans="2:14" ht="60.75" customHeight="1">
+      <c r="G21" s="59">
         <v>6</v>
       </c>
-      <c r="H21" s="59" t="s">
+      <c r="H21" s="60" t="s">
         <v>63</v>
       </c>
-      <c r="I21" s="60" t="s">
+      <c r="I21" s="61" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="22" spans="2:14" thickTop="1">
+    <row r="22" spans="2:14" ht="14.4">
       <c r="B22" s="1"/>
     </row>
     <row r="23" spans="2:14" ht="15.75" customHeight="1">
@@ -1773,7 +2035,7 @@
       <c r="B29" s="1"/>
     </row>
     <row r="30" spans="2:14" ht="15.75" customHeight="1">
-      <c r="F30" s="25"/>
+      <c r="F30" s="26"/>
     </row>
     <row r="31" spans="2:14" ht="15.75" customHeight="1"/>
     <row r="32" spans="2:14" ht="15.75" customHeight="1"/>
@@ -1787,7 +2049,7 @@
     <row r="38" spans="2:5" ht="15.75" customHeight="1"/>
     <row r="39" spans="2:5" ht="27.75" customHeight="1"/>
     <row r="40" spans="2:5" ht="54.75" customHeight="1">
-      <c r="E40" s="25" t="s">
+      <c r="E40" s="26" t="s">
         <v>65</v>
       </c>
     </row>
@@ -4661,4 +4923,1269 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="B2:W1002"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="9.3984375" customWidth="1"/>
+    <col min="2" max="2" width="13.8984375" customWidth="1"/>
+    <col min="3" max="3" width="13.69921875" customWidth="1"/>
+    <col min="4" max="4" width="37.3984375" customWidth="1"/>
+    <col min="5" max="5" width="37" customWidth="1"/>
+    <col min="6" max="6" width="35.09765625" customWidth="1"/>
+    <col min="7" max="7" width="34.19921875" customWidth="1"/>
+    <col min="8" max="8" width="46.19921875" customWidth="1"/>
+    <col min="9" max="9" width="18.69921875" customWidth="1"/>
+    <col min="10" max="10" width="14.59765625" customWidth="1"/>
+    <col min="11" max="11" width="21.69921875" customWidth="1"/>
+    <col min="12" max="12" width="17.69921875" customWidth="1"/>
+    <col min="13" max="14" width="19.3984375" customWidth="1"/>
+    <col min="15" max="15" width="20.09765625" customWidth="1"/>
+    <col min="16" max="16" width="20.8984375" customWidth="1"/>
+    <col min="17" max="17" width="24.8984375" customWidth="1"/>
+    <col min="18" max="18" width="24.5" customWidth="1"/>
+    <col min="19" max="19" width="27.19921875" customWidth="1"/>
+    <col min="20" max="20" width="22.8984375" customWidth="1"/>
+    <col min="21" max="21" width="20.09765625" customWidth="1"/>
+    <col min="22" max="22" width="9.3984375" customWidth="1"/>
+    <col min="23" max="23" width="11.09765625" customWidth="1"/>
+    <col min="24" max="28" width="9.3984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:23" ht="22.8">
+      <c r="H2" s="62" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="2:23" ht="49.5" customHeight="1">
+      <c r="B4" s="63"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="64"/>
+      <c r="K4" s="64"/>
+      <c r="L4" s="64"/>
+      <c r="M4" s="63"/>
+      <c r="N4" s="63"/>
+      <c r="O4" s="63"/>
+      <c r="P4" s="63"/>
+      <c r="Q4" s="63"/>
+      <c r="R4" s="63"/>
+      <c r="S4" s="63"/>
+      <c r="T4" s="63"/>
+      <c r="U4" s="63"/>
+    </row>
+    <row r="5" spans="2:23" ht="57.75" customHeight="1">
+      <c r="B5" s="65" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="66" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5" s="66" t="s">
+        <v>68</v>
+      </c>
+      <c r="E5" s="66" t="s">
+        <v>69</v>
+      </c>
+      <c r="F5" s="66" t="s">
+        <v>70</v>
+      </c>
+      <c r="G5" s="66" t="s">
+        <v>3</v>
+      </c>
+      <c r="H5" s="66" t="s">
+        <v>71</v>
+      </c>
+      <c r="I5" s="66" t="s">
+        <v>72</v>
+      </c>
+      <c r="J5" s="66" t="s">
+        <v>73</v>
+      </c>
+      <c r="K5" s="66" t="s">
+        <v>74</v>
+      </c>
+      <c r="L5" s="67" t="s">
+        <v>75</v>
+      </c>
+      <c r="M5" s="67" t="s">
+        <v>76</v>
+      </c>
+      <c r="N5" s="67" t="s">
+        <v>77</v>
+      </c>
+      <c r="O5" s="66" t="s">
+        <v>78</v>
+      </c>
+      <c r="P5" s="66" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q5" s="66" t="s">
+        <v>80</v>
+      </c>
+      <c r="R5" s="67" t="s">
+        <v>81</v>
+      </c>
+      <c r="S5" s="66" t="s">
+        <v>82</v>
+      </c>
+      <c r="T5" s="66" t="s">
+        <v>83</v>
+      </c>
+      <c r="U5" s="68" t="s">
+        <v>84</v>
+      </c>
+      <c r="W5" s="69"/>
+    </row>
+    <row r="6" spans="2:23" ht="100.5" customHeight="1">
+      <c r="B6" s="70"/>
+      <c r="C6" s="71"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="73"/>
+      <c r="G6" s="73"/>
+      <c r="H6" s="73"/>
+      <c r="I6" s="74"/>
+      <c r="J6" s="74"/>
+      <c r="K6" s="74"/>
+      <c r="L6" s="74"/>
+      <c r="M6" s="74"/>
+      <c r="N6" s="74"/>
+      <c r="O6" s="75"/>
+      <c r="P6" s="75"/>
+      <c r="Q6" s="74"/>
+      <c r="R6" s="75"/>
+      <c r="S6" s="75"/>
+      <c r="T6" s="75"/>
+      <c r="U6" s="76"/>
+    </row>
+    <row r="7" spans="2:23" ht="102.75" customHeight="1">
+      <c r="B7" s="77"/>
+      <c r="C7" s="78"/>
+      <c r="D7" s="79"/>
+      <c r="E7" s="79"/>
+      <c r="F7" s="80"/>
+      <c r="G7" s="81"/>
+      <c r="H7" s="81"/>
+      <c r="I7" s="80"/>
+      <c r="J7" s="80"/>
+      <c r="K7" s="80"/>
+      <c r="L7" s="80"/>
+      <c r="M7" s="80"/>
+      <c r="N7" s="80"/>
+      <c r="O7" s="82"/>
+      <c r="P7" s="82"/>
+      <c r="Q7" s="80"/>
+      <c r="R7" s="82"/>
+      <c r="S7" s="82"/>
+      <c r="T7" s="82"/>
+      <c r="U7" s="83"/>
+    </row>
+    <row r="8" spans="2:23" ht="105.75" customHeight="1">
+      <c r="B8" s="70"/>
+      <c r="C8" s="84"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="72"/>
+      <c r="F8" s="74"/>
+      <c r="G8" s="73"/>
+      <c r="H8" s="73"/>
+      <c r="I8" s="74"/>
+      <c r="J8" s="74"/>
+      <c r="K8" s="74"/>
+      <c r="L8" s="74"/>
+      <c r="M8" s="74"/>
+      <c r="N8" s="74"/>
+      <c r="O8" s="75"/>
+      <c r="P8" s="75"/>
+      <c r="Q8" s="74"/>
+      <c r="R8" s="75"/>
+      <c r="S8" s="75"/>
+      <c r="T8" s="75"/>
+      <c r="U8" s="76"/>
+    </row>
+    <row r="9" spans="2:23" ht="93" customHeight="1">
+      <c r="B9" s="77"/>
+      <c r="C9" s="78"/>
+      <c r="D9" s="79"/>
+      <c r="E9" s="79"/>
+      <c r="F9" s="80"/>
+      <c r="G9" s="81"/>
+      <c r="H9" s="81"/>
+      <c r="I9" s="80"/>
+      <c r="J9" s="80"/>
+      <c r="K9" s="80"/>
+      <c r="L9" s="80"/>
+      <c r="M9" s="80"/>
+      <c r="N9" s="80"/>
+      <c r="O9" s="82"/>
+      <c r="P9" s="82"/>
+      <c r="Q9" s="80"/>
+      <c r="R9" s="82"/>
+      <c r="S9" s="82"/>
+      <c r="T9" s="82"/>
+      <c r="U9" s="83"/>
+    </row>
+    <row r="10" spans="2:23" ht="99.75" customHeight="1">
+      <c r="B10" s="70"/>
+      <c r="C10" s="84"/>
+      <c r="D10" s="72"/>
+      <c r="E10" s="72"/>
+      <c r="F10" s="74"/>
+      <c r="G10" s="85"/>
+      <c r="H10" s="72"/>
+      <c r="I10" s="74"/>
+      <c r="J10" s="74"/>
+      <c r="K10" s="74"/>
+      <c r="L10" s="74"/>
+      <c r="M10" s="74"/>
+      <c r="N10" s="74"/>
+      <c r="O10" s="84"/>
+      <c r="P10" s="84"/>
+      <c r="Q10" s="74"/>
+      <c r="R10" s="75"/>
+      <c r="S10" s="75"/>
+      <c r="T10" s="75"/>
+      <c r="U10" s="76"/>
+    </row>
+    <row r="11" spans="2:23" ht="97.5" customHeight="1">
+      <c r="B11" s="77"/>
+      <c r="C11" s="78"/>
+      <c r="D11" s="79"/>
+      <c r="E11" s="79"/>
+      <c r="F11" s="80"/>
+      <c r="G11" s="81"/>
+      <c r="H11" s="81"/>
+      <c r="I11" s="80"/>
+      <c r="J11" s="80"/>
+      <c r="K11" s="80"/>
+      <c r="L11" s="80"/>
+      <c r="M11" s="80"/>
+      <c r="N11" s="80"/>
+      <c r="O11" s="82"/>
+      <c r="P11" s="82"/>
+      <c r="Q11" s="80"/>
+      <c r="R11" s="82"/>
+      <c r="S11" s="82"/>
+      <c r="T11" s="82"/>
+      <c r="U11" s="83"/>
+    </row>
+    <row r="12" spans="2:23" ht="80.25" customHeight="1">
+      <c r="B12" s="86"/>
+      <c r="C12" s="87"/>
+      <c r="D12" s="88"/>
+      <c r="E12" s="88"/>
+      <c r="F12" s="88"/>
+      <c r="G12" s="88"/>
+      <c r="H12" s="88"/>
+      <c r="I12" s="89"/>
+      <c r="J12" s="89"/>
+      <c r="K12" s="89"/>
+      <c r="L12" s="89"/>
+      <c r="M12" s="89"/>
+      <c r="N12" s="89"/>
+      <c r="O12" s="90"/>
+      <c r="P12" s="90"/>
+      <c r="Q12" s="89"/>
+      <c r="R12" s="90"/>
+      <c r="S12" s="90"/>
+      <c r="T12" s="90"/>
+      <c r="U12" s="91"/>
+    </row>
+    <row r="23" ht="15.75" customHeight="1"/>
+    <row r="24" ht="15.75" customHeight="1"/>
+    <row r="25" ht="15.75" customHeight="1"/>
+    <row r="26" ht="15.75" customHeight="1"/>
+    <row r="27" ht="15.75" customHeight="1"/>
+    <row r="28" ht="15.75" customHeight="1"/>
+    <row r="29" ht="15.75" customHeight="1"/>
+    <row r="30" ht="15.75" customHeight="1"/>
+    <row r="31" ht="15.75" customHeight="1"/>
+    <row r="32" ht="15.75" customHeight="1"/>
+    <row r="33" ht="15.75" customHeight="1"/>
+    <row r="34" ht="15.75" customHeight="1"/>
+    <row r="35" ht="15.75" customHeight="1"/>
+    <row r="36" ht="15.75" customHeight="1"/>
+    <row r="37" ht="15.75" customHeight="1"/>
+    <row r="38" ht="15.75" customHeight="1"/>
+    <row r="39" ht="15.75" customHeight="1"/>
+    <row r="40" ht="15.75" customHeight="1"/>
+    <row r="41" ht="15.75" customHeight="1"/>
+    <row r="42" ht="15.75" customHeight="1"/>
+    <row r="43" ht="15.75" customHeight="1"/>
+    <row r="44" ht="15.75" customHeight="1"/>
+    <row r="45" ht="15.75" customHeight="1"/>
+    <row r="46" ht="15.75" customHeight="1"/>
+    <row r="47" ht="15.75" customHeight="1"/>
+    <row r="48" ht="15.75" customHeight="1"/>
+    <row r="49" ht="15.75" customHeight="1"/>
+    <row r="50" ht="15.75" customHeight="1"/>
+    <row r="51" ht="15.75" customHeight="1"/>
+    <row r="52" ht="15.75" customHeight="1"/>
+    <row r="53" ht="15.75" customHeight="1"/>
+    <row r="54" ht="15.75" customHeight="1"/>
+    <row r="55" ht="15.75" customHeight="1"/>
+    <row r="56" ht="15.75" customHeight="1"/>
+    <row r="57" ht="15.75" customHeight="1"/>
+    <row r="58" ht="15.75" customHeight="1"/>
+    <row r="59" ht="15.75" customHeight="1"/>
+    <row r="60" ht="15.75" customHeight="1"/>
+    <row r="61" ht="15.75" customHeight="1"/>
+    <row r="62" ht="15.75" customHeight="1"/>
+    <row r="63" ht="15.75" customHeight="1"/>
+    <row r="64" ht="15.75" customHeight="1"/>
+    <row r="65" ht="15.75" customHeight="1"/>
+    <row r="66" ht="15.75" customHeight="1"/>
+    <row r="67" ht="15.75" customHeight="1"/>
+    <row r="68" ht="15.75" customHeight="1"/>
+    <row r="69" ht="15.75" customHeight="1"/>
+    <row r="70" ht="15.75" customHeight="1"/>
+    <row r="71" ht="15.75" customHeight="1"/>
+    <row r="72" ht="15.75" customHeight="1"/>
+    <row r="73" ht="15.75" customHeight="1"/>
+    <row r="74" ht="15.75" customHeight="1"/>
+    <row r="75" ht="15.75" customHeight="1"/>
+    <row r="76" ht="15.75" customHeight="1"/>
+    <row r="77" ht="15.75" customHeight="1"/>
+    <row r="78" ht="15.75" customHeight="1"/>
+    <row r="79" ht="15.75" customHeight="1"/>
+    <row r="80" ht="15.75" customHeight="1"/>
+    <row r="81" ht="15.75" customHeight="1"/>
+    <row r="82" ht="15.75" customHeight="1"/>
+    <row r="83" ht="15.75" customHeight="1"/>
+    <row r="84" ht="15.75" customHeight="1"/>
+    <row r="85" ht="15.75" customHeight="1"/>
+    <row r="86" ht="15.75" customHeight="1"/>
+    <row r="87" ht="15.75" customHeight="1"/>
+    <row r="88" ht="15.75" customHeight="1"/>
+    <row r="89" ht="15.75" customHeight="1"/>
+    <row r="90" ht="15.75" customHeight="1"/>
+    <row r="91" ht="15.75" customHeight="1"/>
+    <row r="92" ht="15.75" customHeight="1"/>
+    <row r="93" ht="15.75" customHeight="1"/>
+    <row r="94" ht="15.75" customHeight="1"/>
+    <row r="95" ht="15.75" customHeight="1"/>
+    <row r="96" ht="15.75" customHeight="1"/>
+    <row r="97" ht="15.75" customHeight="1"/>
+    <row r="98" ht="15.75" customHeight="1"/>
+    <row r="99" ht="15.75" customHeight="1"/>
+    <row r="100" ht="15.75" customHeight="1"/>
+    <row r="101" ht="15.75" customHeight="1"/>
+    <row r="102" ht="15.75" customHeight="1"/>
+    <row r="103" ht="15.75" customHeight="1"/>
+    <row r="104" ht="15.75" customHeight="1"/>
+    <row r="105" ht="15.75" customHeight="1"/>
+    <row r="106" ht="15.75" customHeight="1"/>
+    <row r="107" ht="15.75" customHeight="1"/>
+    <row r="108" ht="15.75" customHeight="1"/>
+    <row r="109" ht="15.75" customHeight="1"/>
+    <row r="110" ht="15.75" customHeight="1"/>
+    <row r="111" ht="15.75" customHeight="1"/>
+    <row r="112" ht="15.75" customHeight="1"/>
+    <row r="113" ht="15.75" customHeight="1"/>
+    <row r="114" ht="15.75" customHeight="1"/>
+    <row r="115" ht="15.75" customHeight="1"/>
+    <row r="116" ht="15.75" customHeight="1"/>
+    <row r="117" ht="15.75" customHeight="1"/>
+    <row r="118" ht="15.75" customHeight="1"/>
+    <row r="119" ht="15.75" customHeight="1"/>
+    <row r="120" ht="15.75" customHeight="1"/>
+    <row r="121" ht="15.75" customHeight="1"/>
+    <row r="122" ht="15.75" customHeight="1"/>
+    <row r="123" ht="15.75" customHeight="1"/>
+    <row r="124" ht="15.75" customHeight="1"/>
+    <row r="125" ht="15.75" customHeight="1"/>
+    <row r="126" ht="15.75" customHeight="1"/>
+    <row r="127" ht="15.75" customHeight="1"/>
+    <row r="128" ht="15.75" customHeight="1"/>
+    <row r="129" ht="15.75" customHeight="1"/>
+    <row r="130" ht="15.75" customHeight="1"/>
+    <row r="131" ht="15.75" customHeight="1"/>
+    <row r="132" ht="15.75" customHeight="1"/>
+    <row r="133" ht="15.75" customHeight="1"/>
+    <row r="134" ht="15.75" customHeight="1"/>
+    <row r="135" ht="15.75" customHeight="1"/>
+    <row r="136" ht="15.75" customHeight="1"/>
+    <row r="137" ht="15.75" customHeight="1"/>
+    <row r="138" ht="15.75" customHeight="1"/>
+    <row r="139" ht="15.75" customHeight="1"/>
+    <row r="140" ht="15.75" customHeight="1"/>
+    <row r="141" ht="15.75" customHeight="1"/>
+    <row r="142" ht="15.75" customHeight="1"/>
+    <row r="143" ht="15.75" customHeight="1"/>
+    <row r="144" ht="15.75" customHeight="1"/>
+    <row r="145" ht="15.75" customHeight="1"/>
+    <row r="146" ht="15.75" customHeight="1"/>
+    <row r="147" ht="15.75" customHeight="1"/>
+    <row r="148" ht="15.75" customHeight="1"/>
+    <row r="149" ht="15.75" customHeight="1"/>
+    <row r="150" ht="15.75" customHeight="1"/>
+    <row r="151" ht="15.75" customHeight="1"/>
+    <row r="152" ht="15.75" customHeight="1"/>
+    <row r="153" ht="15.75" customHeight="1"/>
+    <row r="154" ht="15.75" customHeight="1"/>
+    <row r="155" ht="15.75" customHeight="1"/>
+    <row r="156" ht="15.75" customHeight="1"/>
+    <row r="157" ht="15.75" customHeight="1"/>
+    <row r="158" ht="15.75" customHeight="1"/>
+    <row r="159" ht="15.75" customHeight="1"/>
+    <row r="160" ht="15.75" customHeight="1"/>
+    <row r="161" ht="15.75" customHeight="1"/>
+    <row r="162" ht="15.75" customHeight="1"/>
+    <row r="163" ht="15.75" customHeight="1"/>
+    <row r="164" ht="15.75" customHeight="1"/>
+    <row r="165" ht="15.75" customHeight="1"/>
+    <row r="166" ht="15.75" customHeight="1"/>
+    <row r="167" ht="15.75" customHeight="1"/>
+    <row r="168" ht="15.75" customHeight="1"/>
+    <row r="169" ht="15.75" customHeight="1"/>
+    <row r="170" ht="15.75" customHeight="1"/>
+    <row r="171" ht="15.75" customHeight="1"/>
+    <row r="172" ht="15.75" customHeight="1"/>
+    <row r="173" ht="15.75" customHeight="1"/>
+    <row r="174" ht="15.75" customHeight="1"/>
+    <row r="175" ht="15.75" customHeight="1"/>
+    <row r="176" ht="15.75" customHeight="1"/>
+    <row r="177" ht="15.75" customHeight="1"/>
+    <row r="178" ht="15.75" customHeight="1"/>
+    <row r="179" ht="15.75" customHeight="1"/>
+    <row r="180" ht="15.75" customHeight="1"/>
+    <row r="181" ht="15.75" customHeight="1"/>
+    <row r="182" ht="15.75" customHeight="1"/>
+    <row r="183" ht="15.75" customHeight="1"/>
+    <row r="184" ht="15.75" customHeight="1"/>
+    <row r="185" ht="15.75" customHeight="1"/>
+    <row r="186" ht="15.75" customHeight="1"/>
+    <row r="187" ht="15.75" customHeight="1"/>
+    <row r="188" ht="15.75" customHeight="1"/>
+    <row r="189" ht="15.75" customHeight="1"/>
+    <row r="190" ht="15.75" customHeight="1"/>
+    <row r="191" ht="15.75" customHeight="1"/>
+    <row r="192" ht="15.75" customHeight="1"/>
+    <row r="193" ht="15.75" customHeight="1"/>
+    <row r="194" ht="15.75" customHeight="1"/>
+    <row r="195" ht="15.75" customHeight="1"/>
+    <row r="196" ht="15.75" customHeight="1"/>
+    <row r="197" ht="15.75" customHeight="1"/>
+    <row r="198" ht="15.75" customHeight="1"/>
+    <row r="199" ht="15.75" customHeight="1"/>
+    <row r="200" ht="15.75" customHeight="1"/>
+    <row r="201" ht="15.75" customHeight="1"/>
+    <row r="202" ht="15.75" customHeight="1"/>
+    <row r="203" ht="15.75" customHeight="1"/>
+    <row r="204" ht="15.75" customHeight="1"/>
+    <row r="205" ht="15.75" customHeight="1"/>
+    <row r="206" ht="15.75" customHeight="1"/>
+    <row r="207" ht="15.75" customHeight="1"/>
+    <row r="208" ht="15.75" customHeight="1"/>
+    <row r="209" ht="15.75" customHeight="1"/>
+    <row r="210" ht="15.75" customHeight="1"/>
+    <row r="211" ht="15.75" customHeight="1"/>
+    <row r="212" ht="15.75" customHeight="1"/>
+    <row r="213" ht="15.75" customHeight="1"/>
+    <row r="214" ht="15.75" customHeight="1"/>
+    <row r="215" ht="15.75" customHeight="1"/>
+    <row r="216" ht="15.75" customHeight="1"/>
+    <row r="217" ht="15.75" customHeight="1"/>
+    <row r="218" ht="15.75" customHeight="1"/>
+    <row r="219" ht="15.75" customHeight="1"/>
+    <row r="220" ht="15.75" customHeight="1"/>
+    <row r="221" ht="15.75" customHeight="1"/>
+    <row r="222" ht="15.75" customHeight="1"/>
+    <row r="223" ht="15.75" customHeight="1"/>
+    <row r="224" ht="15.75" customHeight="1"/>
+    <row r="225" ht="15.75" customHeight="1"/>
+    <row r="226" ht="15.75" customHeight="1"/>
+    <row r="227" ht="15.75" customHeight="1"/>
+    <row r="228" ht="15.75" customHeight="1"/>
+    <row r="229" ht="15.75" customHeight="1"/>
+    <row r="230" ht="15.75" customHeight="1"/>
+    <row r="231" ht="15.75" customHeight="1"/>
+    <row r="232" ht="15.75" customHeight="1"/>
+    <row r="233" ht="15.75" customHeight="1"/>
+    <row r="234" ht="15.75" customHeight="1"/>
+    <row r="235" ht="15.75" customHeight="1"/>
+    <row r="236" ht="15.75" customHeight="1"/>
+    <row r="237" ht="15.75" customHeight="1"/>
+    <row r="238" ht="15.75" customHeight="1"/>
+    <row r="239" ht="15.75" customHeight="1"/>
+    <row r="240" ht="15.75" customHeight="1"/>
+    <row r="241" ht="15.75" customHeight="1"/>
+    <row r="242" ht="15.75" customHeight="1"/>
+    <row r="243" ht="15.75" customHeight="1"/>
+    <row r="244" ht="15.75" customHeight="1"/>
+    <row r="245" ht="15.75" customHeight="1"/>
+    <row r="246" ht="15.75" customHeight="1"/>
+    <row r="247" ht="15.75" customHeight="1"/>
+    <row r="248" ht="15.75" customHeight="1"/>
+    <row r="249" ht="15.75" customHeight="1"/>
+    <row r="250" ht="15.75" customHeight="1"/>
+    <row r="251" ht="15.75" customHeight="1"/>
+    <row r="252" ht="15.75" customHeight="1"/>
+    <row r="253" ht="15.75" customHeight="1"/>
+    <row r="254" ht="15.75" customHeight="1"/>
+    <row r="255" ht="15.75" customHeight="1"/>
+    <row r="256" ht="15.75" customHeight="1"/>
+    <row r="257" ht="15.75" customHeight="1"/>
+    <row r="258" ht="15.75" customHeight="1"/>
+    <row r="259" ht="15.75" customHeight="1"/>
+    <row r="260" ht="15.75" customHeight="1"/>
+    <row r="261" ht="15.75" customHeight="1"/>
+    <row r="262" ht="15.75" customHeight="1"/>
+    <row r="263" ht="15.75" customHeight="1"/>
+    <row r="264" ht="15.75" customHeight="1"/>
+    <row r="265" ht="15.75" customHeight="1"/>
+    <row r="266" ht="15.75" customHeight="1"/>
+    <row r="267" ht="15.75" customHeight="1"/>
+    <row r="268" ht="15.75" customHeight="1"/>
+    <row r="269" ht="15.75" customHeight="1"/>
+    <row r="270" ht="15.75" customHeight="1"/>
+    <row r="271" ht="15.75" customHeight="1"/>
+    <row r="272" ht="15.75" customHeight="1"/>
+    <row r="273" ht="15.75" customHeight="1"/>
+    <row r="274" ht="15.75" customHeight="1"/>
+    <row r="275" ht="15.75" customHeight="1"/>
+    <row r="276" ht="15.75" customHeight="1"/>
+    <row r="277" ht="15.75" customHeight="1"/>
+    <row r="278" ht="15.75" customHeight="1"/>
+    <row r="279" ht="15.75" customHeight="1"/>
+    <row r="280" ht="15.75" customHeight="1"/>
+    <row r="281" ht="15.75" customHeight="1"/>
+    <row r="282" ht="15.75" customHeight="1"/>
+    <row r="283" ht="15.75" customHeight="1"/>
+    <row r="284" ht="15.75" customHeight="1"/>
+    <row r="285" ht="15.75" customHeight="1"/>
+    <row r="286" ht="15.75" customHeight="1"/>
+    <row r="287" ht="15.75" customHeight="1"/>
+    <row r="288" ht="15.75" customHeight="1"/>
+    <row r="289" ht="15.75" customHeight="1"/>
+    <row r="290" ht="15.75" customHeight="1"/>
+    <row r="291" ht="15.75" customHeight="1"/>
+    <row r="292" ht="15.75" customHeight="1"/>
+    <row r="293" ht="15.75" customHeight="1"/>
+    <row r="294" ht="15.75" customHeight="1"/>
+    <row r="295" ht="15.75" customHeight="1"/>
+    <row r="296" ht="15.75" customHeight="1"/>
+    <row r="297" ht="15.75" customHeight="1"/>
+    <row r="298" ht="15.75" customHeight="1"/>
+    <row r="299" ht="15.75" customHeight="1"/>
+    <row r="300" ht="15.75" customHeight="1"/>
+    <row r="301" ht="15.75" customHeight="1"/>
+    <row r="302" ht="15.75" customHeight="1"/>
+    <row r="303" ht="15.75" customHeight="1"/>
+    <row r="304" ht="15.75" customHeight="1"/>
+    <row r="305" ht="15.75" customHeight="1"/>
+    <row r="306" ht="15.75" customHeight="1"/>
+    <row r="307" ht="15.75" customHeight="1"/>
+    <row r="308" ht="15.75" customHeight="1"/>
+    <row r="309" ht="15.75" customHeight="1"/>
+    <row r="310" ht="15.75" customHeight="1"/>
+    <row r="311" ht="15.75" customHeight="1"/>
+    <row r="312" ht="15.75" customHeight="1"/>
+    <row r="313" ht="15.75" customHeight="1"/>
+    <row r="314" ht="15.75" customHeight="1"/>
+    <row r="315" ht="15.75" customHeight="1"/>
+    <row r="316" ht="15.75" customHeight="1"/>
+    <row r="317" ht="15.75" customHeight="1"/>
+    <row r="318" ht="15.75" customHeight="1"/>
+    <row r="319" ht="15.75" customHeight="1"/>
+    <row r="320" ht="15.75" customHeight="1"/>
+    <row r="321" ht="15.75" customHeight="1"/>
+    <row r="322" ht="15.75" customHeight="1"/>
+    <row r="323" ht="15.75" customHeight="1"/>
+    <row r="324" ht="15.75" customHeight="1"/>
+    <row r="325" ht="15.75" customHeight="1"/>
+    <row r="326" ht="15.75" customHeight="1"/>
+    <row r="327" ht="15.75" customHeight="1"/>
+    <row r="328" ht="15.75" customHeight="1"/>
+    <row r="329" ht="15.75" customHeight="1"/>
+    <row r="330" ht="15.75" customHeight="1"/>
+    <row r="331" ht="15.75" customHeight="1"/>
+    <row r="332" ht="15.75" customHeight="1"/>
+    <row r="333" ht="15.75" customHeight="1"/>
+    <row r="334" ht="15.75" customHeight="1"/>
+    <row r="335" ht="15.75" customHeight="1"/>
+    <row r="336" ht="15.75" customHeight="1"/>
+    <row r="337" ht="15.75" customHeight="1"/>
+    <row r="338" ht="15.75" customHeight="1"/>
+    <row r="339" ht="15.75" customHeight="1"/>
+    <row r="340" ht="15.75" customHeight="1"/>
+    <row r="341" ht="15.75" customHeight="1"/>
+    <row r="342" ht="15.75" customHeight="1"/>
+    <row r="343" ht="15.75" customHeight="1"/>
+    <row r="344" ht="15.75" customHeight="1"/>
+    <row r="345" ht="15.75" customHeight="1"/>
+    <row r="346" ht="15.75" customHeight="1"/>
+    <row r="347" ht="15.75" customHeight="1"/>
+    <row r="348" ht="15.75" customHeight="1"/>
+    <row r="349" ht="15.75" customHeight="1"/>
+    <row r="350" ht="15.75" customHeight="1"/>
+    <row r="351" ht="15.75" customHeight="1"/>
+    <row r="352" ht="15.75" customHeight="1"/>
+    <row r="353" ht="15.75" customHeight="1"/>
+    <row r="354" ht="15.75" customHeight="1"/>
+    <row r="355" ht="15.75" customHeight="1"/>
+    <row r="356" ht="15.75" customHeight="1"/>
+    <row r="357" ht="15.75" customHeight="1"/>
+    <row r="358" ht="15.75" customHeight="1"/>
+    <row r="359" ht="15.75" customHeight="1"/>
+    <row r="360" ht="15.75" customHeight="1"/>
+    <row r="361" ht="15.75" customHeight="1"/>
+    <row r="362" ht="15.75" customHeight="1"/>
+    <row r="363" ht="15.75" customHeight="1"/>
+    <row r="364" ht="15.75" customHeight="1"/>
+    <row r="365" ht="15.75" customHeight="1"/>
+    <row r="366" ht="15.75" customHeight="1"/>
+    <row r="367" ht="15.75" customHeight="1"/>
+    <row r="368" ht="15.75" customHeight="1"/>
+    <row r="369" ht="15.75" customHeight="1"/>
+    <row r="370" ht="15.75" customHeight="1"/>
+    <row r="371" ht="15.75" customHeight="1"/>
+    <row r="372" ht="15.75" customHeight="1"/>
+    <row r="373" ht="15.75" customHeight="1"/>
+    <row r="374" ht="15.75" customHeight="1"/>
+    <row r="375" ht="15.75" customHeight="1"/>
+    <row r="376" ht="15.75" customHeight="1"/>
+    <row r="377" ht="15.75" customHeight="1"/>
+    <row r="378" ht="15.75" customHeight="1"/>
+    <row r="379" ht="15.75" customHeight="1"/>
+    <row r="380" ht="15.75" customHeight="1"/>
+    <row r="381" ht="15.75" customHeight="1"/>
+    <row r="382" ht="15.75" customHeight="1"/>
+    <row r="383" ht="15.75" customHeight="1"/>
+    <row r="384" ht="15.75" customHeight="1"/>
+    <row r="385" ht="15.75" customHeight="1"/>
+    <row r="386" ht="15.75" customHeight="1"/>
+    <row r="387" ht="15.75" customHeight="1"/>
+    <row r="388" ht="15.75" customHeight="1"/>
+    <row r="389" ht="15.75" customHeight="1"/>
+    <row r="390" ht="15.75" customHeight="1"/>
+    <row r="391" ht="15.75" customHeight="1"/>
+    <row r="392" ht="15.75" customHeight="1"/>
+    <row r="393" ht="15.75" customHeight="1"/>
+    <row r="394" ht="15.75" customHeight="1"/>
+    <row r="395" ht="15.75" customHeight="1"/>
+    <row r="396" ht="15.75" customHeight="1"/>
+    <row r="397" ht="15.75" customHeight="1"/>
+    <row r="398" ht="15.75" customHeight="1"/>
+    <row r="399" ht="15.75" customHeight="1"/>
+    <row r="400" ht="15.75" customHeight="1"/>
+    <row r="401" ht="15.75" customHeight="1"/>
+    <row r="402" ht="15.75" customHeight="1"/>
+    <row r="403" ht="15.75" customHeight="1"/>
+    <row r="404" ht="15.75" customHeight="1"/>
+    <row r="405" ht="15.75" customHeight="1"/>
+    <row r="406" ht="15.75" customHeight="1"/>
+    <row r="407" ht="15.75" customHeight="1"/>
+    <row r="408" ht="15.75" customHeight="1"/>
+    <row r="409" ht="15.75" customHeight="1"/>
+    <row r="410" ht="15.75" customHeight="1"/>
+    <row r="411" ht="15.75" customHeight="1"/>
+    <row r="412" ht="15.75" customHeight="1"/>
+    <row r="413" ht="15.75" customHeight="1"/>
+    <row r="414" ht="15.75" customHeight="1"/>
+    <row r="415" ht="15.75" customHeight="1"/>
+    <row r="416" ht="15.75" customHeight="1"/>
+    <row r="417" ht="15.75" customHeight="1"/>
+    <row r="418" ht="15.75" customHeight="1"/>
+    <row r="419" ht="15.75" customHeight="1"/>
+    <row r="420" ht="15.75" customHeight="1"/>
+    <row r="421" ht="15.75" customHeight="1"/>
+    <row r="422" ht="15.75" customHeight="1"/>
+    <row r="423" ht="15.75" customHeight="1"/>
+    <row r="424" ht="15.75" customHeight="1"/>
+    <row r="425" ht="15.75" customHeight="1"/>
+    <row r="426" ht="15.75" customHeight="1"/>
+    <row r="427" ht="15.75" customHeight="1"/>
+    <row r="428" ht="15.75" customHeight="1"/>
+    <row r="429" ht="15.75" customHeight="1"/>
+    <row r="430" ht="15.75" customHeight="1"/>
+    <row r="431" ht="15.75" customHeight="1"/>
+    <row r="432" ht="15.75" customHeight="1"/>
+    <row r="433" ht="15.75" customHeight="1"/>
+    <row r="434" ht="15.75" customHeight="1"/>
+    <row r="435" ht="15.75" customHeight="1"/>
+    <row r="436" ht="15.75" customHeight="1"/>
+    <row r="437" ht="15.75" customHeight="1"/>
+    <row r="438" ht="15.75" customHeight="1"/>
+    <row r="439" ht="15.75" customHeight="1"/>
+    <row r="440" ht="15.75" customHeight="1"/>
+    <row r="441" ht="15.75" customHeight="1"/>
+    <row r="442" ht="15.75" customHeight="1"/>
+    <row r="443" ht="15.75" customHeight="1"/>
+    <row r="444" ht="15.75" customHeight="1"/>
+    <row r="445" ht="15.75" customHeight="1"/>
+    <row r="446" ht="15.75" customHeight="1"/>
+    <row r="447" ht="15.75" customHeight="1"/>
+    <row r="448" ht="15.75" customHeight="1"/>
+    <row r="449" ht="15.75" customHeight="1"/>
+    <row r="450" ht="15.75" customHeight="1"/>
+    <row r="451" ht="15.75" customHeight="1"/>
+    <row r="452" ht="15.75" customHeight="1"/>
+    <row r="453" ht="15.75" customHeight="1"/>
+    <row r="454" ht="15.75" customHeight="1"/>
+    <row r="455" ht="15.75" customHeight="1"/>
+    <row r="456" ht="15.75" customHeight="1"/>
+    <row r="457" ht="15.75" customHeight="1"/>
+    <row r="458" ht="15.75" customHeight="1"/>
+    <row r="459" ht="15.75" customHeight="1"/>
+    <row r="460" ht="15.75" customHeight="1"/>
+    <row r="461" ht="15.75" customHeight="1"/>
+    <row r="462" ht="15.75" customHeight="1"/>
+    <row r="463" ht="15.75" customHeight="1"/>
+    <row r="464" ht="15.75" customHeight="1"/>
+    <row r="465" ht="15.75" customHeight="1"/>
+    <row r="466" ht="15.75" customHeight="1"/>
+    <row r="467" ht="15.75" customHeight="1"/>
+    <row r="468" ht="15.75" customHeight="1"/>
+    <row r="469" ht="15.75" customHeight="1"/>
+    <row r="470" ht="15.75" customHeight="1"/>
+    <row r="471" ht="15.75" customHeight="1"/>
+    <row r="472" ht="15.75" customHeight="1"/>
+    <row r="473" ht="15.75" customHeight="1"/>
+    <row r="474" ht="15.75" customHeight="1"/>
+    <row r="475" ht="15.75" customHeight="1"/>
+    <row r="476" ht="15.75" customHeight="1"/>
+    <row r="477" ht="15.75" customHeight="1"/>
+    <row r="478" ht="15.75" customHeight="1"/>
+    <row r="479" ht="15.75" customHeight="1"/>
+    <row r="480" ht="15.75" customHeight="1"/>
+    <row r="481" ht="15.75" customHeight="1"/>
+    <row r="482" ht="15.75" customHeight="1"/>
+    <row r="483" ht="15.75" customHeight="1"/>
+    <row r="484" ht="15.75" customHeight="1"/>
+    <row r="485" ht="15.75" customHeight="1"/>
+    <row r="486" ht="15.75" customHeight="1"/>
+    <row r="487" ht="15.75" customHeight="1"/>
+    <row r="488" ht="15.75" customHeight="1"/>
+    <row r="489" ht="15.75" customHeight="1"/>
+    <row r="490" ht="15.75" customHeight="1"/>
+    <row r="491" ht="15.75" customHeight="1"/>
+    <row r="492" ht="15.75" customHeight="1"/>
+    <row r="493" ht="15.75" customHeight="1"/>
+    <row r="494" ht="15.75" customHeight="1"/>
+    <row r="495" ht="15.75" customHeight="1"/>
+    <row r="496" ht="15.75" customHeight="1"/>
+    <row r="497" ht="15.75" customHeight="1"/>
+    <row r="498" ht="15.75" customHeight="1"/>
+    <row r="499" ht="15.75" customHeight="1"/>
+    <row r="500" ht="15.75" customHeight="1"/>
+    <row r="501" ht="15.75" customHeight="1"/>
+    <row r="502" ht="15.75" customHeight="1"/>
+    <row r="503" ht="15.75" customHeight="1"/>
+    <row r="504" ht="15.75" customHeight="1"/>
+    <row r="505" ht="15.75" customHeight="1"/>
+    <row r="506" ht="15.75" customHeight="1"/>
+    <row r="507" ht="15.75" customHeight="1"/>
+    <row r="508" ht="15.75" customHeight="1"/>
+    <row r="509" ht="15.75" customHeight="1"/>
+    <row r="510" ht="15.75" customHeight="1"/>
+    <row r="511" ht="15.75" customHeight="1"/>
+    <row r="512" ht="15.75" customHeight="1"/>
+    <row r="513" ht="15.75" customHeight="1"/>
+    <row r="514" ht="15.75" customHeight="1"/>
+    <row r="515" ht="15.75" customHeight="1"/>
+    <row r="516" ht="15.75" customHeight="1"/>
+    <row r="517" ht="15.75" customHeight="1"/>
+    <row r="518" ht="15.75" customHeight="1"/>
+    <row r="519" ht="15.75" customHeight="1"/>
+    <row r="520" ht="15.75" customHeight="1"/>
+    <row r="521" ht="15.75" customHeight="1"/>
+    <row r="522" ht="15.75" customHeight="1"/>
+    <row r="523" ht="15.75" customHeight="1"/>
+    <row r="524" ht="15.75" customHeight="1"/>
+    <row r="525" ht="15.75" customHeight="1"/>
+    <row r="526" ht="15.75" customHeight="1"/>
+    <row r="527" ht="15.75" customHeight="1"/>
+    <row r="528" ht="15.75" customHeight="1"/>
+    <row r="529" ht="15.75" customHeight="1"/>
+    <row r="530" ht="15.75" customHeight="1"/>
+    <row r="531" ht="15.75" customHeight="1"/>
+    <row r="532" ht="15.75" customHeight="1"/>
+    <row r="533" ht="15.75" customHeight="1"/>
+    <row r="534" ht="15.75" customHeight="1"/>
+    <row r="535" ht="15.75" customHeight="1"/>
+    <row r="536" ht="15.75" customHeight="1"/>
+    <row r="537" ht="15.75" customHeight="1"/>
+    <row r="538" ht="15.75" customHeight="1"/>
+    <row r="539" ht="15.75" customHeight="1"/>
+    <row r="540" ht="15.75" customHeight="1"/>
+    <row r="541" ht="15.75" customHeight="1"/>
+    <row r="542" ht="15.75" customHeight="1"/>
+    <row r="543" ht="15.75" customHeight="1"/>
+    <row r="544" ht="15.75" customHeight="1"/>
+    <row r="545" ht="15.75" customHeight="1"/>
+    <row r="546" ht="15.75" customHeight="1"/>
+    <row r="547" ht="15.75" customHeight="1"/>
+    <row r="548" ht="15.75" customHeight="1"/>
+    <row r="549" ht="15.75" customHeight="1"/>
+    <row r="550" ht="15.75" customHeight="1"/>
+    <row r="551" ht="15.75" customHeight="1"/>
+    <row r="552" ht="15.75" customHeight="1"/>
+    <row r="553" ht="15.75" customHeight="1"/>
+    <row r="554" ht="15.75" customHeight="1"/>
+    <row r="555" ht="15.75" customHeight="1"/>
+    <row r="556" ht="15.75" customHeight="1"/>
+    <row r="557" ht="15.75" customHeight="1"/>
+    <row r="558" ht="15.75" customHeight="1"/>
+    <row r="559" ht="15.75" customHeight="1"/>
+    <row r="560" ht="15.75" customHeight="1"/>
+    <row r="561" ht="15.75" customHeight="1"/>
+    <row r="562" ht="15.75" customHeight="1"/>
+    <row r="563" ht="15.75" customHeight="1"/>
+    <row r="564" ht="15.75" customHeight="1"/>
+    <row r="565" ht="15.75" customHeight="1"/>
+    <row r="566" ht="15.75" customHeight="1"/>
+    <row r="567" ht="15.75" customHeight="1"/>
+    <row r="568" ht="15.75" customHeight="1"/>
+    <row r="569" ht="15.75" customHeight="1"/>
+    <row r="570" ht="15.75" customHeight="1"/>
+    <row r="571" ht="15.75" customHeight="1"/>
+    <row r="572" ht="15.75" customHeight="1"/>
+    <row r="573" ht="15.75" customHeight="1"/>
+    <row r="574" ht="15.75" customHeight="1"/>
+    <row r="575" ht="15.75" customHeight="1"/>
+    <row r="576" ht="15.75" customHeight="1"/>
+    <row r="577" ht="15.75" customHeight="1"/>
+    <row r="578" ht="15.75" customHeight="1"/>
+    <row r="579" ht="15.75" customHeight="1"/>
+    <row r="580" ht="15.75" customHeight="1"/>
+    <row r="581" ht="15.75" customHeight="1"/>
+    <row r="582" ht="15.75" customHeight="1"/>
+    <row r="583" ht="15.75" customHeight="1"/>
+    <row r="584" ht="15.75" customHeight="1"/>
+    <row r="585" ht="15.75" customHeight="1"/>
+    <row r="586" ht="15.75" customHeight="1"/>
+    <row r="587" ht="15.75" customHeight="1"/>
+    <row r="588" ht="15.75" customHeight="1"/>
+    <row r="589" ht="15.75" customHeight="1"/>
+    <row r="590" ht="15.75" customHeight="1"/>
+    <row r="591" ht="15.75" customHeight="1"/>
+    <row r="592" ht="15.75" customHeight="1"/>
+    <row r="593" ht="15.75" customHeight="1"/>
+    <row r="594" ht="15.75" customHeight="1"/>
+    <row r="595" ht="15.75" customHeight="1"/>
+    <row r="596" ht="15.75" customHeight="1"/>
+    <row r="597" ht="15.75" customHeight="1"/>
+    <row r="598" ht="15.75" customHeight="1"/>
+    <row r="599" ht="15.75" customHeight="1"/>
+    <row r="600" ht="15.75" customHeight="1"/>
+    <row r="601" ht="15.75" customHeight="1"/>
+    <row r="602" ht="15.75" customHeight="1"/>
+    <row r="603" ht="15.75" customHeight="1"/>
+    <row r="604" ht="15.75" customHeight="1"/>
+    <row r="605" ht="15.75" customHeight="1"/>
+    <row r="606" ht="15.75" customHeight="1"/>
+    <row r="607" ht="15.75" customHeight="1"/>
+    <row r="608" ht="15.75" customHeight="1"/>
+    <row r="609" ht="15.75" customHeight="1"/>
+    <row r="610" ht="15.75" customHeight="1"/>
+    <row r="611" ht="15.75" customHeight="1"/>
+    <row r="612" ht="15.75" customHeight="1"/>
+    <row r="613" ht="15.75" customHeight="1"/>
+    <row r="614" ht="15.75" customHeight="1"/>
+    <row r="615" ht="15.75" customHeight="1"/>
+    <row r="616" ht="15.75" customHeight="1"/>
+    <row r="617" ht="15.75" customHeight="1"/>
+    <row r="618" ht="15.75" customHeight="1"/>
+    <row r="619" ht="15.75" customHeight="1"/>
+    <row r="620" ht="15.75" customHeight="1"/>
+    <row r="621" ht="15.75" customHeight="1"/>
+    <row r="622" ht="15.75" customHeight="1"/>
+    <row r="623" ht="15.75" customHeight="1"/>
+    <row r="624" ht="15.75" customHeight="1"/>
+    <row r="625" ht="15.75" customHeight="1"/>
+    <row r="626" ht="15.75" customHeight="1"/>
+    <row r="627" ht="15.75" customHeight="1"/>
+    <row r="628" ht="15.75" customHeight="1"/>
+    <row r="629" ht="15.75" customHeight="1"/>
+    <row r="630" ht="15.75" customHeight="1"/>
+    <row r="631" ht="15.75" customHeight="1"/>
+    <row r="632" ht="15.75" customHeight="1"/>
+    <row r="633" ht="15.75" customHeight="1"/>
+    <row r="634" ht="15.75" customHeight="1"/>
+    <row r="635" ht="15.75" customHeight="1"/>
+    <row r="636" ht="15.75" customHeight="1"/>
+    <row r="637" ht="15.75" customHeight="1"/>
+    <row r="638" ht="15.75" customHeight="1"/>
+    <row r="639" ht="15.75" customHeight="1"/>
+    <row r="640" ht="15.75" customHeight="1"/>
+    <row r="641" ht="15.75" customHeight="1"/>
+    <row r="642" ht="15.75" customHeight="1"/>
+    <row r="643" ht="15.75" customHeight="1"/>
+    <row r="644" ht="15.75" customHeight="1"/>
+    <row r="645" ht="15.75" customHeight="1"/>
+    <row r="646" ht="15.75" customHeight="1"/>
+    <row r="647" ht="15.75" customHeight="1"/>
+    <row r="648" ht="15.75" customHeight="1"/>
+    <row r="649" ht="15.75" customHeight="1"/>
+    <row r="650" ht="15.75" customHeight="1"/>
+    <row r="651" ht="15.75" customHeight="1"/>
+    <row r="652" ht="15.75" customHeight="1"/>
+    <row r="653" ht="15.75" customHeight="1"/>
+    <row r="654" ht="15.75" customHeight="1"/>
+    <row r="655" ht="15.75" customHeight="1"/>
+    <row r="656" ht="15.75" customHeight="1"/>
+    <row r="657" ht="15.75" customHeight="1"/>
+    <row r="658" ht="15.75" customHeight="1"/>
+    <row r="659" ht="15.75" customHeight="1"/>
+    <row r="660" ht="15.75" customHeight="1"/>
+    <row r="661" ht="15.75" customHeight="1"/>
+    <row r="662" ht="15.75" customHeight="1"/>
+    <row r="663" ht="15.75" customHeight="1"/>
+    <row r="664" ht="15.75" customHeight="1"/>
+    <row r="665" ht="15.75" customHeight="1"/>
+    <row r="666" ht="15.75" customHeight="1"/>
+    <row r="667" ht="15.75" customHeight="1"/>
+    <row r="668" ht="15.75" customHeight="1"/>
+    <row r="669" ht="15.75" customHeight="1"/>
+    <row r="670" ht="15.75" customHeight="1"/>
+    <row r="671" ht="15.75" customHeight="1"/>
+    <row r="672" ht="15.75" customHeight="1"/>
+    <row r="673" ht="15.75" customHeight="1"/>
+    <row r="674" ht="15.75" customHeight="1"/>
+    <row r="675" ht="15.75" customHeight="1"/>
+    <row r="676" ht="15.75" customHeight="1"/>
+    <row r="677" ht="15.75" customHeight="1"/>
+    <row r="678" ht="15.75" customHeight="1"/>
+    <row r="679" ht="15.75" customHeight="1"/>
+    <row r="680" ht="15.75" customHeight="1"/>
+    <row r="681" ht="15.75" customHeight="1"/>
+    <row r="682" ht="15.75" customHeight="1"/>
+    <row r="683" ht="15.75" customHeight="1"/>
+    <row r="684" ht="15.75" customHeight="1"/>
+    <row r="685" ht="15.75" customHeight="1"/>
+    <row r="686" ht="15.75" customHeight="1"/>
+    <row r="687" ht="15.75" customHeight="1"/>
+    <row r="688" ht="15.75" customHeight="1"/>
+    <row r="689" ht="15.75" customHeight="1"/>
+    <row r="690" ht="15.75" customHeight="1"/>
+    <row r="691" ht="15.75" customHeight="1"/>
+    <row r="692" ht="15.75" customHeight="1"/>
+    <row r="693" ht="15.75" customHeight="1"/>
+    <row r="694" ht="15.75" customHeight="1"/>
+    <row r="695" ht="15.75" customHeight="1"/>
+    <row r="696" ht="15.75" customHeight="1"/>
+    <row r="697" ht="15.75" customHeight="1"/>
+    <row r="698" ht="15.75" customHeight="1"/>
+    <row r="699" ht="15.75" customHeight="1"/>
+    <row r="700" ht="15.75" customHeight="1"/>
+    <row r="701" ht="15.75" customHeight="1"/>
+    <row r="702" ht="15.75" customHeight="1"/>
+    <row r="703" ht="15.75" customHeight="1"/>
+    <row r="704" ht="15.75" customHeight="1"/>
+    <row r="705" ht="15.75" customHeight="1"/>
+    <row r="706" ht="15.75" customHeight="1"/>
+    <row r="707" ht="15.75" customHeight="1"/>
+    <row r="708" ht="15.75" customHeight="1"/>
+    <row r="709" ht="15.75" customHeight="1"/>
+    <row r="710" ht="15.75" customHeight="1"/>
+    <row r="711" ht="15.75" customHeight="1"/>
+    <row r="712" ht="15.75" customHeight="1"/>
+    <row r="713" ht="15.75" customHeight="1"/>
+    <row r="714" ht="15.75" customHeight="1"/>
+    <row r="715" ht="15.75" customHeight="1"/>
+    <row r="716" ht="15.75" customHeight="1"/>
+    <row r="717" ht="15.75" customHeight="1"/>
+    <row r="718" ht="15.75" customHeight="1"/>
+    <row r="719" ht="15.75" customHeight="1"/>
+    <row r="720" ht="15.75" customHeight="1"/>
+    <row r="721" ht="15.75" customHeight="1"/>
+    <row r="722" ht="15.75" customHeight="1"/>
+    <row r="723" ht="15.75" customHeight="1"/>
+    <row r="724" ht="15.75" customHeight="1"/>
+    <row r="725" ht="15.75" customHeight="1"/>
+    <row r="726" ht="15.75" customHeight="1"/>
+    <row r="727" ht="15.75" customHeight="1"/>
+    <row r="728" ht="15.75" customHeight="1"/>
+    <row r="729" ht="15.75" customHeight="1"/>
+    <row r="730" ht="15.75" customHeight="1"/>
+    <row r="731" ht="15.75" customHeight="1"/>
+    <row r="732" ht="15.75" customHeight="1"/>
+    <row r="733" ht="15.75" customHeight="1"/>
+    <row r="734" ht="15.75" customHeight="1"/>
+    <row r="735" ht="15.75" customHeight="1"/>
+    <row r="736" ht="15.75" customHeight="1"/>
+    <row r="737" ht="15.75" customHeight="1"/>
+    <row r="738" ht="15.75" customHeight="1"/>
+    <row r="739" ht="15.75" customHeight="1"/>
+    <row r="740" ht="15.75" customHeight="1"/>
+    <row r="741" ht="15.75" customHeight="1"/>
+    <row r="742" ht="15.75" customHeight="1"/>
+    <row r="743" ht="15.75" customHeight="1"/>
+    <row r="744" ht="15.75" customHeight="1"/>
+    <row r="745" ht="15.75" customHeight="1"/>
+    <row r="746" ht="15.75" customHeight="1"/>
+    <row r="747" ht="15.75" customHeight="1"/>
+    <row r="748" ht="15.75" customHeight="1"/>
+    <row r="749" ht="15.75" customHeight="1"/>
+    <row r="750" ht="15.75" customHeight="1"/>
+    <row r="751" ht="15.75" customHeight="1"/>
+    <row r="752" ht="15.75" customHeight="1"/>
+    <row r="753" ht="15.75" customHeight="1"/>
+    <row r="754" ht="15.75" customHeight="1"/>
+    <row r="755" ht="15.75" customHeight="1"/>
+    <row r="756" ht="15.75" customHeight="1"/>
+    <row r="757" ht="15.75" customHeight="1"/>
+    <row r="758" ht="15.75" customHeight="1"/>
+    <row r="759" ht="15.75" customHeight="1"/>
+    <row r="760" ht="15.75" customHeight="1"/>
+    <row r="761" ht="15.75" customHeight="1"/>
+    <row r="762" ht="15.75" customHeight="1"/>
+    <row r="763" ht="15.75" customHeight="1"/>
+    <row r="764" ht="15.75" customHeight="1"/>
+    <row r="765" ht="15.75" customHeight="1"/>
+    <row r="766" ht="15.75" customHeight="1"/>
+    <row r="767" ht="15.75" customHeight="1"/>
+    <row r="768" ht="15.75" customHeight="1"/>
+    <row r="769" ht="15.75" customHeight="1"/>
+    <row r="770" ht="15.75" customHeight="1"/>
+    <row r="771" ht="15.75" customHeight="1"/>
+    <row r="772" ht="15.75" customHeight="1"/>
+    <row r="773" ht="15.75" customHeight="1"/>
+    <row r="774" ht="15.75" customHeight="1"/>
+    <row r="775" ht="15.75" customHeight="1"/>
+    <row r="776" ht="15.75" customHeight="1"/>
+    <row r="777" ht="15.75" customHeight="1"/>
+    <row r="778" ht="15.75" customHeight="1"/>
+    <row r="779" ht="15.75" customHeight="1"/>
+    <row r="780" ht="15.75" customHeight="1"/>
+    <row r="781" ht="15.75" customHeight="1"/>
+    <row r="782" ht="15.75" customHeight="1"/>
+    <row r="783" ht="15.75" customHeight="1"/>
+    <row r="784" ht="15.75" customHeight="1"/>
+    <row r="785" ht="15.75" customHeight="1"/>
+    <row r="786" ht="15.75" customHeight="1"/>
+    <row r="787" ht="15.75" customHeight="1"/>
+    <row r="788" ht="15.75" customHeight="1"/>
+    <row r="789" ht="15.75" customHeight="1"/>
+    <row r="790" ht="15.75" customHeight="1"/>
+    <row r="791" ht="15.75" customHeight="1"/>
+    <row r="792" ht="15.75" customHeight="1"/>
+    <row r="793" ht="15.75" customHeight="1"/>
+    <row r="794" ht="15.75" customHeight="1"/>
+    <row r="795" ht="15.75" customHeight="1"/>
+    <row r="796" ht="15.75" customHeight="1"/>
+    <row r="797" ht="15.75" customHeight="1"/>
+    <row r="798" ht="15.75" customHeight="1"/>
+    <row r="799" ht="15.75" customHeight="1"/>
+    <row r="800" ht="15.75" customHeight="1"/>
+    <row r="801" ht="15.75" customHeight="1"/>
+    <row r="802" ht="15.75" customHeight="1"/>
+    <row r="803" ht="15.75" customHeight="1"/>
+    <row r="804" ht="15.75" customHeight="1"/>
+    <row r="805" ht="15.75" customHeight="1"/>
+    <row r="806" ht="15.75" customHeight="1"/>
+    <row r="807" ht="15.75" customHeight="1"/>
+    <row r="808" ht="15.75" customHeight="1"/>
+    <row r="809" ht="15.75" customHeight="1"/>
+    <row r="810" ht="15.75" customHeight="1"/>
+    <row r="811" ht="15.75" customHeight="1"/>
+    <row r="812" ht="15.75" customHeight="1"/>
+    <row r="813" ht="15.75" customHeight="1"/>
+    <row r="814" ht="15.75" customHeight="1"/>
+    <row r="815" ht="15.75" customHeight="1"/>
+    <row r="816" ht="15.75" customHeight="1"/>
+    <row r="817" ht="15.75" customHeight="1"/>
+    <row r="818" ht="15.75" customHeight="1"/>
+    <row r="819" ht="15.75" customHeight="1"/>
+    <row r="820" ht="15.75" customHeight="1"/>
+    <row r="821" ht="15.75" customHeight="1"/>
+    <row r="822" ht="15.75" customHeight="1"/>
+    <row r="823" ht="15.75" customHeight="1"/>
+    <row r="824" ht="15.75" customHeight="1"/>
+    <row r="825" ht="15.75" customHeight="1"/>
+    <row r="826" ht="15.75" customHeight="1"/>
+    <row r="827" ht="15.75" customHeight="1"/>
+    <row r="828" ht="15.75" customHeight="1"/>
+    <row r="829" ht="15.75" customHeight="1"/>
+    <row r="830" ht="15.75" customHeight="1"/>
+    <row r="831" ht="15.75" customHeight="1"/>
+    <row r="832" ht="15.75" customHeight="1"/>
+    <row r="833" ht="15.75" customHeight="1"/>
+    <row r="834" ht="15.75" customHeight="1"/>
+    <row r="835" ht="15.75" customHeight="1"/>
+    <row r="836" ht="15.75" customHeight="1"/>
+    <row r="837" ht="15.75" customHeight="1"/>
+    <row r="838" ht="15.75" customHeight="1"/>
+    <row r="839" ht="15.75" customHeight="1"/>
+    <row r="840" ht="15.75" customHeight="1"/>
+    <row r="841" ht="15.75" customHeight="1"/>
+    <row r="842" ht="15.75" customHeight="1"/>
+    <row r="843" ht="15.75" customHeight="1"/>
+    <row r="844" ht="15.75" customHeight="1"/>
+    <row r="845" ht="15.75" customHeight="1"/>
+    <row r="846" ht="15.75" customHeight="1"/>
+    <row r="847" ht="15.75" customHeight="1"/>
+    <row r="848" ht="15.75" customHeight="1"/>
+    <row r="849" ht="15.75" customHeight="1"/>
+    <row r="850" ht="15.75" customHeight="1"/>
+    <row r="851" ht="15.75" customHeight="1"/>
+    <row r="852" ht="15.75" customHeight="1"/>
+    <row r="853" ht="15.75" customHeight="1"/>
+    <row r="854" ht="15.75" customHeight="1"/>
+    <row r="855" ht="15.75" customHeight="1"/>
+    <row r="856" ht="15.75" customHeight="1"/>
+    <row r="857" ht="15.75" customHeight="1"/>
+    <row r="858" ht="15.75" customHeight="1"/>
+    <row r="859" ht="15.75" customHeight="1"/>
+    <row r="860" ht="15.75" customHeight="1"/>
+    <row r="861" ht="15.75" customHeight="1"/>
+    <row r="862" ht="15.75" customHeight="1"/>
+    <row r="863" ht="15.75" customHeight="1"/>
+    <row r="864" ht="15.75" customHeight="1"/>
+    <row r="865" ht="15.75" customHeight="1"/>
+    <row r="866" ht="15.75" customHeight="1"/>
+    <row r="867" ht="15.75" customHeight="1"/>
+    <row r="868" ht="15.75" customHeight="1"/>
+    <row r="869" ht="15.75" customHeight="1"/>
+    <row r="870" ht="15.75" customHeight="1"/>
+    <row r="871" ht="15.75" customHeight="1"/>
+    <row r="872" ht="15.75" customHeight="1"/>
+    <row r="873" ht="15.75" customHeight="1"/>
+    <row r="874" ht="15.75" customHeight="1"/>
+    <row r="875" ht="15.75" customHeight="1"/>
+    <row r="876" ht="15.75" customHeight="1"/>
+    <row r="877" ht="15.75" customHeight="1"/>
+    <row r="878" ht="15.75" customHeight="1"/>
+    <row r="879" ht="15.75" customHeight="1"/>
+    <row r="880" ht="15.75" customHeight="1"/>
+    <row r="881" ht="15.75" customHeight="1"/>
+    <row r="882" ht="15.75" customHeight="1"/>
+    <row r="883" ht="15.75" customHeight="1"/>
+    <row r="884" ht="15.75" customHeight="1"/>
+    <row r="885" ht="15.75" customHeight="1"/>
+    <row r="886" ht="15.75" customHeight="1"/>
+    <row r="887" ht="15.75" customHeight="1"/>
+    <row r="888" ht="15.75" customHeight="1"/>
+    <row r="889" ht="15.75" customHeight="1"/>
+    <row r="890" ht="15.75" customHeight="1"/>
+    <row r="891" ht="15.75" customHeight="1"/>
+    <row r="892" ht="15.75" customHeight="1"/>
+    <row r="893" ht="15.75" customHeight="1"/>
+    <row r="894" ht="15.75" customHeight="1"/>
+    <row r="895" ht="15.75" customHeight="1"/>
+    <row r="896" ht="15.75" customHeight="1"/>
+    <row r="897" ht="15.75" customHeight="1"/>
+    <row r="898" ht="15.75" customHeight="1"/>
+    <row r="899" ht="15.75" customHeight="1"/>
+    <row r="900" ht="15.75" customHeight="1"/>
+    <row r="901" ht="15.75" customHeight="1"/>
+    <row r="902" ht="15.75" customHeight="1"/>
+    <row r="903" ht="15.75" customHeight="1"/>
+    <row r="904" ht="15.75" customHeight="1"/>
+    <row r="905" ht="15.75" customHeight="1"/>
+    <row r="906" ht="15.75" customHeight="1"/>
+    <row r="907" ht="15.75" customHeight="1"/>
+    <row r="908" ht="15.75" customHeight="1"/>
+    <row r="909" ht="15.75" customHeight="1"/>
+    <row r="910" ht="15.75" customHeight="1"/>
+    <row r="911" ht="15.75" customHeight="1"/>
+    <row r="912" ht="15.75" customHeight="1"/>
+    <row r="913" ht="15.75" customHeight="1"/>
+    <row r="914" ht="15.75" customHeight="1"/>
+    <row r="915" ht="15.75" customHeight="1"/>
+    <row r="916" ht="15.75" customHeight="1"/>
+    <row r="917" ht="15.75" customHeight="1"/>
+    <row r="918" ht="15.75" customHeight="1"/>
+    <row r="919" ht="15.75" customHeight="1"/>
+    <row r="920" ht="15.75" customHeight="1"/>
+    <row r="921" ht="15.75" customHeight="1"/>
+    <row r="922" ht="15.75" customHeight="1"/>
+    <row r="923" ht="15.75" customHeight="1"/>
+    <row r="924" ht="15.75" customHeight="1"/>
+    <row r="925" ht="15.75" customHeight="1"/>
+    <row r="926" ht="15.75" customHeight="1"/>
+    <row r="927" ht="15.75" customHeight="1"/>
+    <row r="928" ht="15.75" customHeight="1"/>
+    <row r="929" ht="15.75" customHeight="1"/>
+    <row r="930" ht="15.75" customHeight="1"/>
+    <row r="931" ht="15.75" customHeight="1"/>
+    <row r="932" ht="15.75" customHeight="1"/>
+    <row r="933" ht="15.75" customHeight="1"/>
+    <row r="934" ht="15.75" customHeight="1"/>
+    <row r="935" ht="15.75" customHeight="1"/>
+    <row r="936" ht="15.75" customHeight="1"/>
+    <row r="937" ht="15.75" customHeight="1"/>
+    <row r="938" ht="15.75" customHeight="1"/>
+    <row r="939" ht="15.75" customHeight="1"/>
+    <row r="940" ht="15.75" customHeight="1"/>
+    <row r="941" ht="15.75" customHeight="1"/>
+    <row r="942" ht="15.75" customHeight="1"/>
+    <row r="943" ht="15.75" customHeight="1"/>
+    <row r="944" ht="15.75" customHeight="1"/>
+    <row r="945" ht="15.75" customHeight="1"/>
+    <row r="946" ht="15.75" customHeight="1"/>
+    <row r="947" ht="15.75" customHeight="1"/>
+    <row r="948" ht="15.75" customHeight="1"/>
+    <row r="949" ht="15.75" customHeight="1"/>
+    <row r="950" ht="15.75" customHeight="1"/>
+    <row r="951" ht="15.75" customHeight="1"/>
+    <row r="952" ht="15.75" customHeight="1"/>
+    <row r="953" ht="15.75" customHeight="1"/>
+    <row r="954" ht="15.75" customHeight="1"/>
+    <row r="955" ht="15.75" customHeight="1"/>
+    <row r="956" ht="15.75" customHeight="1"/>
+    <row r="957" ht="15.75" customHeight="1"/>
+    <row r="958" ht="15.75" customHeight="1"/>
+    <row r="959" ht="15.75" customHeight="1"/>
+    <row r="960" ht="15.75" customHeight="1"/>
+    <row r="961" ht="15.75" customHeight="1"/>
+    <row r="962" ht="15.75" customHeight="1"/>
+    <row r="963" ht="15.75" customHeight="1"/>
+    <row r="964" ht="15.75" customHeight="1"/>
+    <row r="965" ht="15.75" customHeight="1"/>
+    <row r="966" ht="15.75" customHeight="1"/>
+    <row r="967" ht="15.75" customHeight="1"/>
+    <row r="968" ht="15.75" customHeight="1"/>
+    <row r="969" ht="15.75" customHeight="1"/>
+    <row r="970" ht="15.75" customHeight="1"/>
+    <row r="971" ht="15.75" customHeight="1"/>
+    <row r="972" ht="15.75" customHeight="1"/>
+    <row r="973" ht="15.75" customHeight="1"/>
+    <row r="974" ht="15.75" customHeight="1"/>
+    <row r="975" ht="15.75" customHeight="1"/>
+    <row r="976" ht="15.75" customHeight="1"/>
+    <row r="977" ht="15.75" customHeight="1"/>
+    <row r="978" ht="15.75" customHeight="1"/>
+    <row r="979" ht="15.75" customHeight="1"/>
+    <row r="980" ht="15.75" customHeight="1"/>
+    <row r="981" ht="15.75" customHeight="1"/>
+    <row r="982" ht="15.75" customHeight="1"/>
+    <row r="983" ht="15.75" customHeight="1"/>
+    <row r="984" ht="15.75" customHeight="1"/>
+    <row r="985" ht="15.75" customHeight="1"/>
+    <row r="986" ht="15.75" customHeight="1"/>
+    <row r="987" ht="15.75" customHeight="1"/>
+    <row r="988" ht="15.75" customHeight="1"/>
+    <row r="989" ht="15.75" customHeight="1"/>
+    <row r="990" ht="15.75" customHeight="1"/>
+    <row r="991" ht="15.75" customHeight="1"/>
+    <row r="992" ht="15.75" customHeight="1"/>
+    <row r="993" ht="15.75" customHeight="1"/>
+    <row r="994" ht="15.75" customHeight="1"/>
+    <row r="995" ht="15.75" customHeight="1"/>
+    <row r="996" ht="15.75" customHeight="1"/>
+    <row r="997" ht="15.75" customHeight="1"/>
+    <row r="998" ht="15.75" customHeight="1"/>
+    <row r="999" ht="15.75" customHeight="1"/>
+    <row r="1000" ht="15.75" customHeight="1"/>
+    <row r="1001" ht="15.75" customHeight="1"/>
+    <row r="1002" ht="15.75" customHeight="1"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup orientation="landscape"/>
+</worksheet>
 </file>
--- a/Desarrollo/SGEH/Fuentes/SGEH-DEC.xlsx
+++ b/Desarrollo/SGEH/Fuentes/SGEH-DEC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\UNMSM\CICLO VI\GCS-WONG\Estado de Cambio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D551299-C4BE-4DA5-ADE4-A918514A6FDD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21811CD5-3774-4AB7-8466-776E7496E353}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Estados de Solicitud de Cambio" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="105">
   <si>
     <t>NIVELES DE URGENCIA</t>
   </si>
@@ -322,6 +322,24 @@
   </si>
   <si>
     <t>Fecha de inicio en que se empezó el cambio</t>
+  </si>
+  <si>
+    <t>Se detalla la Fecha de finalización del cambio</t>
+  </si>
+  <si>
+    <t>Persona que se encargó de pasar la solicitud de cambio</t>
+  </si>
+  <si>
+    <t>Fecha de recepción del cambio</t>
+  </si>
+  <si>
+    <t>Fecha en la que se implementó el cambio</t>
+  </si>
+  <si>
+    <t>Fecha en la que se verificó el cambio</t>
+  </si>
+  <si>
+    <t>El nombre del usuario que verificó</t>
   </si>
   <si>
     <t xml:space="preserve">ESTADO DE SOLICITUD DE CAMBIOS </t>
@@ -335,7 +353,7 @@
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
     <numFmt numFmtId="165" formatCode="d/m/yyyy"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -409,6 +427,12 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Comfortaa"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Comfortaa"/>
     </font>
   </fonts>
@@ -510,7 +534,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="47">
+  <borders count="49">
     <border>
       <left/>
       <right/>
@@ -1202,11 +1226,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF6AA84F"/>
+      </left>
+      <right style="thick">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thick">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF6AA84F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF6AA84F"/>
+      </right>
+      <top style="thick">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF6AA84F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1489,6 +1543,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="16" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1712,7 +1778,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:N1002"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D19" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
@@ -1742,16 +1808,16 @@
       <c r="K2" s="2"/>
     </row>
     <row r="3" spans="2:14" ht="48" customHeight="1">
-      <c r="B3" s="98" t="s">
-        <v>98</v>
-      </c>
-      <c r="C3" s="99"/>
-      <c r="D3" s="99"/>
-      <c r="G3" s="98" t="s">
+      <c r="B3" s="102" t="s">
+        <v>104</v>
+      </c>
+      <c r="C3" s="103"/>
+      <c r="D3" s="103"/>
+      <c r="G3" s="102" t="s">
         <v>0</v>
       </c>
-      <c r="H3" s="99"/>
-      <c r="I3" s="99"/>
+      <c r="H3" s="103"/>
+      <c r="I3" s="103"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
       <c r="L3" s="4"/>
@@ -1879,11 +1945,11 @@
       <c r="D9" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="G9" s="98" t="s">
+      <c r="G9" s="102" t="s">
         <v>23</v>
       </c>
-      <c r="H9" s="99"/>
-      <c r="I9" s="99"/>
+      <c r="H9" s="103"/>
+      <c r="I9" s="103"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
@@ -2000,11 +2066,11 @@
       <c r="D14" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="G14" s="98" t="s">
+      <c r="G14" s="102" t="s">
         <v>40</v>
       </c>
-      <c r="H14" s="99"/>
-      <c r="I14" s="99"/>
+      <c r="H14" s="103"/>
+      <c r="I14" s="103"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
@@ -6339,10 +6405,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8343DFC-08AC-4800-88E9-DDAD0E61B053}">
-  <dimension ref="B2:C21"/>
+  <dimension ref="B2:C22"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8"/>
@@ -6456,12 +6522,55 @@
         <v>97</v>
       </c>
     </row>
-    <row r="16" spans="2:3" ht="72.599999999999994" customHeight="1" thickTop="1"/>
-    <row r="17" ht="61.8" customHeight="1"/>
-    <row r="18" ht="57.6" customHeight="1"/>
-    <row r="19" ht="71.400000000000006" customHeight="1"/>
-    <row r="20" ht="71.400000000000006" customHeight="1"/>
-    <row r="21" ht="58.2" customHeight="1"/>
+    <row r="16" spans="2:3" ht="72.599999999999994" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B16" s="98" t="s">
+        <v>79</v>
+      </c>
+      <c r="C16" s="95" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" ht="61.8" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B17" s="99" t="s">
+        <v>80</v>
+      </c>
+      <c r="C17" s="97" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" ht="57.6" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B18" s="98" t="s">
+        <v>81</v>
+      </c>
+      <c r="C18" s="95" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" ht="71.400000000000006" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B19" s="99" t="s">
+        <v>82</v>
+      </c>
+      <c r="C19" s="97" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" ht="71.400000000000006" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B20" s="98" t="s">
+        <v>83</v>
+      </c>
+      <c r="C20" s="95" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" ht="58.2" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B21" s="100" t="s">
+        <v>84</v>
+      </c>
+      <c r="C21" s="101" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" ht="14.4" thickTop="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
